--- a/web_scraper_jumbo/Output/df_categorias_jumbo.xlsx
+++ b/web_scraper_jumbo/Output/df_categorias_jumbo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F291"/>
+  <dimension ref="A1:F296"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -958,7 +958,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Desayuno y Dulces</t>
+          <t>Desayunos</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -990,7 +990,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Desayuno y Dulces</t>
+          <t>Desayunos</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Desayuno y Dulces</t>
+          <t>Desayunos</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1032,12 +1032,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Chocolates y Dulces</t>
+          <t>Azúcar y Endulzantes</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/desayuno-y-dulces/chocolates-y-dulces</t>
+          <t>https://www.jumbo.cl/desayuno-y-dulces/azucar-y-endulzantes</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Desayuno y Dulces</t>
+          <t>Desayunos</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1064,12 +1064,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Galletas y Colaciones</t>
+          <t>Cereales, Avenas y Barras</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/desayuno-y-dulces/galletas-y-colaciones</t>
+          <t>https://www.jumbo.cl/desayuno-y-dulces/cereales-avenas-y-barras</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Desayuno y Dulces</t>
+          <t>Desayunos</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1118,22 +1118,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Belleza y Cuidado Personal</t>
+          <t>Chocolates, Galletas y Dulces</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/belleza-y-cuidado-personal</t>
+          <t>https://www.jumbo.cl/chocolates-galletas-y-dulces</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Cuidado Capilar</t>
+          <t>Chocolates</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/belleza-y-cuidado-personal/cuidado-capilar</t>
+          <t>https://www.jumbo.cl/chocolates-galletas-y-dulces/chocolates</t>
         </is>
       </c>
     </row>
@@ -1150,22 +1150,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Belleza y Cuidado Personal</t>
+          <t>Chocolates, Galletas y Dulces</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/belleza-y-cuidado-personal</t>
+          <t>https://www.jumbo.cl/chocolates-galletas-y-dulces</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Cuidado Bucal</t>
+          <t>Galletas</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/belleza-y-cuidado-personal/cuidado-bucal</t>
+          <t>https://www.jumbo.cl/chocolates-galletas-y-dulces/galletas</t>
         </is>
       </c>
     </row>
@@ -1182,22 +1182,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Belleza y Cuidado Personal</t>
+          <t>Chocolates, Galletas y Dulces</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/belleza-y-cuidado-personal</t>
+          <t>https://www.jumbo.cl/chocolates-galletas-y-dulces</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Cuidado Masculino</t>
+          <t>Dulces</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/belleza-y-cuidado-personal/cuidado-masculino</t>
+          <t>https://www.jumbo.cl/chocolates-galletas-y-dulces/dulces</t>
         </is>
       </c>
     </row>
@@ -1214,22 +1214,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Belleza y Cuidado Personal</t>
+          <t>Chocolates, Galletas y Dulces</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/belleza-y-cuidado-personal</t>
+          <t>https://www.jumbo.cl/chocolates-galletas-y-dulces</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Higiene Personal</t>
+          <t>Colaciones</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/belleza-y-cuidado-personal/higiene-personal</t>
+          <t>https://www.jumbo.cl/chocolates-galletas-y-dulces/colaciones</t>
         </is>
       </c>
     </row>
@@ -1246,12 +1246,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Belleza y Cuidado Personal</t>
+          <t>Chocolates, Galletas y Dulces</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/belleza-y-cuidado-personal</t>
+          <t>https://www.jumbo.cl/chocolates-galletas-y-dulces</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/belleza-y-cuidado-personal</t>
+          <t>https://www.jumbo.cl/chocolates-galletas-y-dulces</t>
         </is>
       </c>
     </row>
@@ -1278,22 +1278,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Vinos, Cervezas y Licores</t>
+          <t>Belleza y Cuidado Personal</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/vinos-cervezas-y-licores</t>
+          <t>https://www.jumbo.cl/belleza-y-cuidado-personal</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Vinos y Espumantes</t>
+          <t>Cuidado Capilar</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/vinos</t>
+          <t>https://www.jumbo.cl/belleza-y-cuidado-personal/cuidado-capilar</t>
         </is>
       </c>
     </row>
@@ -1310,22 +1310,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Vinos, Cervezas y Licores</t>
+          <t>Belleza y Cuidado Personal</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/vinos-cervezas-y-licores</t>
+          <t>https://www.jumbo.cl/belleza-y-cuidado-personal</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Cervezas</t>
+          <t>Cuidado Bucal</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/cervezas</t>
+          <t>https://www.jumbo.cl/belleza-y-cuidado-personal/cuidado-bucal</t>
         </is>
       </c>
     </row>
@@ -1342,22 +1342,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Vinos, Cervezas y Licores</t>
+          <t>Belleza y Cuidado Personal</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/vinos-cervezas-y-licores</t>
+          <t>https://www.jumbo.cl/belleza-y-cuidado-personal</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Destilados</t>
+          <t>Cuidado Masculino</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/destilados</t>
+          <t>https://www.jumbo.cl/belleza-y-cuidado-personal/cuidado-masculino</t>
         </is>
       </c>
     </row>
@@ -1374,22 +1374,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Vinos, Cervezas y Licores</t>
+          <t>Belleza y Cuidado Personal</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/vinos-cervezas-y-licores</t>
+          <t>https://www.jumbo.cl/belleza-y-cuidado-personal</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Licores y Cócteles</t>
+          <t>Higiene Personal</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/licores-y-cocteles</t>
+          <t>https://www.jumbo.cl/belleza-y-cuidado-personal/higiene-personal</t>
         </is>
       </c>
     </row>
@@ -1406,12 +1406,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Vinos, Cervezas y Licores</t>
+          <t>Belleza y Cuidado Personal</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/vinos-cervezas-y-licores</t>
+          <t>https://www.jumbo.cl/belleza-y-cuidado-personal</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/vinos-cervezas-y-licores</t>
+          <t>https://www.jumbo.cl/belleza-y-cuidado-personal</t>
         </is>
       </c>
     </row>
@@ -1438,22 +1438,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Quesos y Fiambres</t>
+          <t>Vinos, Cervezas y Licores</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/quesos-y-fiambres</t>
+          <t>https://www.jumbo.cl/vinos-cervezas-y-licores</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Quesería</t>
+          <t>Vinos y Espumantes</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/quesos-y-fiambres/queseria</t>
+          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/vinos</t>
         </is>
       </c>
     </row>
@@ -1470,22 +1470,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Quesos y Fiambres</t>
+          <t>Vinos, Cervezas y Licores</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/quesos-y-fiambres</t>
+          <t>https://www.jumbo.cl/vinos-cervezas-y-licores</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Fiambrería</t>
+          <t>Cervezas</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/quesos-y-fiambres/fiambreria</t>
+          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/cervezas</t>
         </is>
       </c>
     </row>
@@ -1502,22 +1502,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Quesos y Fiambres</t>
+          <t>Vinos, Cervezas y Licores</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/quesos-y-fiambres</t>
+          <t>https://www.jumbo.cl/vinos-cervezas-y-licores</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Salchichas y Parrilleros</t>
+          <t>Destilados</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/quesos-y-fiambres/salchichas-y-parrilleros</t>
+          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/destilados</t>
         </is>
       </c>
     </row>
@@ -1534,22 +1534,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Quesos y Fiambres</t>
+          <t>Vinos, Cervezas y Licores</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/quesos-y-fiambres</t>
+          <t>https://www.jumbo.cl/vinos-cervezas-y-licores</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Fábrica Jumbo Artesanal</t>
+          <t>Licores y Cócteles</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/quesos-y-fiambres/fabrica-jumbo-artesanal</t>
+          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/licores-y-cocteles</t>
         </is>
       </c>
     </row>
@@ -1566,12 +1566,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Quesos y Fiambres</t>
+          <t>Vinos, Cervezas y Licores</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/quesos-y-fiambres</t>
+          <t>https://www.jumbo.cl/vinos-cervezas-y-licores</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1581,7 +1581,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/quesos-y-fiambres</t>
+          <t>https://www.jumbo.cl/vinos-cervezas-y-licores</t>
         </is>
       </c>
     </row>
@@ -1598,22 +1598,22 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Panadería y Pastelería</t>
+          <t>Quesos y Fiambres</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/panaderia-y-pasteleria</t>
+          <t>https://www.jumbo.cl/quesos-y-fiambres</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Panadería granel</t>
+          <t>Quesería</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/panaderia-y-pasteleria/panaderia-granel</t>
+          <t>https://www.jumbo.cl/quesos-y-fiambres/queseria</t>
         </is>
       </c>
     </row>
@@ -1630,22 +1630,22 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Panadería y Pastelería</t>
+          <t>Quesos y Fiambres</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/panaderia-y-pasteleria</t>
+          <t>https://www.jumbo.cl/quesos-y-fiambres</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Panadería envasada</t>
+          <t>Fiambrería</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/panaderia-y-pasteleria/panaderia-envasada</t>
+          <t>https://www.jumbo.cl/quesos-y-fiambres/fiambreria</t>
         </is>
       </c>
     </row>
@@ -1662,22 +1662,22 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Panadería y Pastelería</t>
+          <t>Quesos y Fiambres</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/panaderia-y-pasteleria</t>
+          <t>https://www.jumbo.cl/quesos-y-fiambres</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Pastelería</t>
+          <t>Salchichas y Parrilleros</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/panaderia-y-pasteleria/pasteleria</t>
+          <t>https://www.jumbo.cl/quesos-y-fiambres/salchichas-y-parrilleros</t>
         </is>
       </c>
     </row>
@@ -1694,22 +1694,22 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Panadería y Pastelería</t>
+          <t>Quesos y Fiambres</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/panaderia-y-pasteleria</t>
+          <t>https://www.jumbo.cl/quesos-y-fiambres</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Masas y Tortillas</t>
+          <t>Fábrica Jumbo Artesanal</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/panaderia-y-pasteleria/masas-y-tortillas</t>
+          <t>https://www.jumbo.cl/quesos-y-fiambres/fabrica-jumbo-artesanal</t>
         </is>
       </c>
     </row>
@@ -1726,12 +1726,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Panadería y Pastelería</t>
+          <t>Quesos y Fiambres</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/panaderia-y-pasteleria</t>
+          <t>https://www.jumbo.cl/quesos-y-fiambres</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1741,7 +1741,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/panaderia-y-pasteleria</t>
+          <t>https://www.jumbo.cl/quesos-y-fiambres</t>
         </is>
       </c>
     </row>
@@ -1758,22 +1758,22 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Pescadería</t>
+          <t>Panadería y Pastelería</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/pescaderia</t>
+          <t>https://www.jumbo.cl/panaderia-y-pasteleria</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Camarones</t>
+          <t>Panadería granel</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/pescaderia/camarones</t>
+          <t>https://www.jumbo.cl/panaderia-y-pasteleria/panaderia-granel</t>
         </is>
       </c>
     </row>
@@ -1790,22 +1790,22 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Pescadería</t>
+          <t>Panadería y Pastelería</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/pescaderia</t>
+          <t>https://www.jumbo.cl/panaderia-y-pasteleria</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Pescados</t>
+          <t>Panadería envasada</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/pescaderia/pescados</t>
+          <t>https://www.jumbo.cl/panaderia-y-pasteleria/panaderia-envasada</t>
         </is>
       </c>
     </row>
@@ -1822,22 +1822,22 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Pescadería</t>
+          <t>Panadería y Pastelería</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/pescaderia</t>
+          <t>https://www.jumbo.cl/panaderia-y-pasteleria</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Ahumados y Carpaccios</t>
+          <t>Pastelería</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/pescaderia/ahumados-y-carpaccios</t>
+          <t>https://www.jumbo.cl/panaderia-y-pasteleria/pasteleria</t>
         </is>
       </c>
     </row>
@@ -1854,22 +1854,22 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Pescadería</t>
+          <t>Panadería y Pastelería</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/pescaderia</t>
+          <t>https://www.jumbo.cl/panaderia-y-pasteleria</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Mariscos</t>
+          <t>Masas y Tortillas</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/pescaderia/mariscos</t>
+          <t>https://www.jumbo.cl/panaderia-y-pasteleria/masas-y-tortillas</t>
         </is>
       </c>
     </row>
@@ -1886,12 +1886,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Pescadería</t>
+          <t>Panadería y Pastelería</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/pescaderia</t>
+          <t>https://www.jumbo.cl/panaderia-y-pasteleria</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/pescaderia</t>
+          <t>https://www.jumbo.cl/panaderia-y-pasteleria</t>
         </is>
       </c>
     </row>
@@ -1918,22 +1918,22 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Comidas Preparadas</t>
+          <t>Pescadería</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/comidas-preparadas</t>
+          <t>https://www.jumbo.cl/pescaderia</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Entradas y Ensaladas</t>
+          <t>Camarones</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/comidas-preparadas/entradas-y-ensaladas</t>
+          <t>https://www.jumbo.cl/pescaderia/camarones</t>
         </is>
       </c>
     </row>
@@ -1950,22 +1950,22 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Comidas Preparadas</t>
+          <t>Pescadería</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/comidas-preparadas</t>
+          <t>https://www.jumbo.cl/pescaderia</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Empanadas y Sándwiches</t>
+          <t>Pescados</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/comidas-preparadas/empanadas-y-sandwiches</t>
+          <t>https://www.jumbo.cl/pescaderia/pescados</t>
         </is>
       </c>
     </row>
@@ -1982,22 +1982,22 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Comidas Preparadas</t>
+          <t>Pescadería</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/comidas-preparadas</t>
+          <t>https://www.jumbo.cl/pescaderia</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Platos de Fondo</t>
+          <t>Ahumados y Carpaccios</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/comidas-preparadas/platos-de-fondo</t>
+          <t>https://www.jumbo.cl/pescaderia/ahumados-y-carpaccios</t>
         </is>
       </c>
     </row>
@@ -2014,22 +2014,22 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Comidas Preparadas</t>
+          <t>Pescadería</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/comidas-preparadas</t>
+          <t>https://www.jumbo.cl/pescaderia</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Pastas y Lasañas</t>
+          <t>Mariscos</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/comidas-preparadas/pastas-y-lasanas</t>
+          <t>https://www.jumbo.cl/pescaderia/mariscos</t>
         </is>
       </c>
     </row>
@@ -2046,12 +2046,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Comidas Preparadas</t>
+          <t>Pescadería</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/comidas-preparadas</t>
+          <t>https://www.jumbo.cl/pescaderia</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2061,7 +2061,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/comidas-preparadas</t>
+          <t>https://www.jumbo.cl/pescaderia</t>
         </is>
       </c>
     </row>
@@ -2078,22 +2078,22 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Sabores del Mundo</t>
+          <t>Comidas Preparadas</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/productos-importados</t>
+          <t>https://www.jumbo.cl/comidas-preparadas</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Alemania</t>
+          <t>Entradas y Ensaladas</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/busca?fq=H%3A14879</t>
+          <t>https://www.jumbo.cl/comidas-preparadas/entradas-y-ensaladas</t>
         </is>
       </c>
     </row>
@@ -2110,22 +2110,22 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Sabores del Mundo</t>
+          <t>Comidas Preparadas</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/productos-importados</t>
+          <t>https://www.jumbo.cl/comidas-preparadas</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>España</t>
+          <t>Empanadas y Sándwiches</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/busca?fq=H%3A14880</t>
+          <t>https://www.jumbo.cl/comidas-preparadas/empanadas-y-sandwiches</t>
         </is>
       </c>
     </row>
@@ -2142,22 +2142,22 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Sabores del Mundo</t>
+          <t>Comidas Preparadas</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/productos-importados</t>
+          <t>https://www.jumbo.cl/comidas-preparadas</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Estados Unidos</t>
+          <t>Platos de Fondo</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/busca?fq=H%3A14881</t>
+          <t>https://www.jumbo.cl/comidas-preparadas/platos-de-fondo</t>
         </is>
       </c>
     </row>
@@ -2174,22 +2174,22 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Sabores del Mundo</t>
+          <t>Comidas Preparadas</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/productos-importados</t>
+          <t>https://www.jumbo.cl/comidas-preparadas</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Lejano Oriente</t>
+          <t>Pastas y Lasañas</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/busca?fq=H%3A14884</t>
+          <t>https://www.jumbo.cl/comidas-preparadas/pastas-y-lasanas</t>
         </is>
       </c>
     </row>
@@ -2206,12 +2206,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Sabores del Mundo</t>
+          <t>Comidas Preparadas</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/productos-importados</t>
+          <t>https://www.jumbo.cl/comidas-preparadas</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2221,7 +2221,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/productos-importados</t>
+          <t>https://www.jumbo.cl/comidas-preparadas</t>
         </is>
       </c>
     </row>
@@ -2238,22 +2238,22 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Mundo Bio Natura</t>
+          <t>Sabores del Mundo</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/mundo-bio-natura</t>
+          <t>https://www.jumbo.cl/productos-importados</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Vegano</t>
+          <t>Alemania</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/mundo-bio-natura/vegano</t>
+          <t>https://www.jumbo.cl/busca?fq=H%3A14879</t>
         </is>
       </c>
     </row>
@@ -2270,22 +2270,22 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Mundo Bio Natura</t>
+          <t>Sabores del Mundo</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/mundo-bio-natura</t>
+          <t>https://www.jumbo.cl/productos-importados</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Low Carb</t>
+          <t>España</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/mundo-bio-natura/low-carb</t>
+          <t>https://www.jumbo.cl/busca?fq=H%3A14880</t>
         </is>
       </c>
     </row>
@@ -2302,22 +2302,22 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Mundo Bio Natura</t>
+          <t>Sabores del Mundo</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/mundo-bio-natura</t>
+          <t>https://www.jumbo.cl/productos-importados</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Libre de Gluten</t>
+          <t>Estados Unidos</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/mundo-bio-natura/libre-de-gluten</t>
+          <t>https://www.jumbo.cl/busca?fq=H%3A14881</t>
         </is>
       </c>
     </row>
@@ -2334,22 +2334,22 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Mundo Bio Natura</t>
+          <t>Sabores del Mundo</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/mundo-bio-natura</t>
+          <t>https://www.jumbo.cl/productos-importados</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Libre de Azúcar Añadida</t>
+          <t>Lejano Oriente</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/mundo-bio-natura/libre-de-azucar-anadida</t>
+          <t>https://www.jumbo.cl/busca?fq=H%3A14884</t>
         </is>
       </c>
     </row>
@@ -2366,12 +2366,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Mundo Bio Natura</t>
+          <t>Sabores del Mundo</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/mundo-bio-natura</t>
+          <t>https://www.jumbo.cl/productos-importados</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2381,7 +2381,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/mundo-bio-natura</t>
+          <t>https://www.jumbo.cl/productos-importados</t>
         </is>
       </c>
     </row>
@@ -2398,22 +2398,22 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Hogar</t>
+          <t>Mundo Bio Natura</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/hogar</t>
+          <t>https://www.jumbo.cl/mundo-bio-natura</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Cocina</t>
+          <t>Vegano</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/hogar/cocina</t>
+          <t>https://www.jumbo.cl/mundo-bio-natura/vegano</t>
         </is>
       </c>
     </row>
@@ -2430,22 +2430,22 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Hogar</t>
+          <t>Mundo Bio Natura</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/hogar</t>
+          <t>https://www.jumbo.cl/mundo-bio-natura</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Decoración</t>
+          <t>Low Carb</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/hogar/decoracion</t>
+          <t>https://www.jumbo.cl/mundo-bio-natura/low-carb</t>
         </is>
       </c>
     </row>
@@ -2462,22 +2462,22 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Hogar</t>
+          <t>Mundo Bio Natura</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/hogar</t>
+          <t>https://www.jumbo.cl/mundo-bio-natura</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Ropa de Cama</t>
+          <t>Libre de Gluten</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/hogar/ropa-de-cama</t>
+          <t>https://www.jumbo.cl/mundo-bio-natura/libre-de-gluten</t>
         </is>
       </c>
     </row>
@@ -2494,22 +2494,22 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Hogar</t>
+          <t>Mundo Bio Natura</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/hogar</t>
+          <t>https://www.jumbo.cl/mundo-bio-natura</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Menaje mesa</t>
+          <t>Libre de Azúcar Añadida</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/hogar/menaje-mesa</t>
+          <t>https://www.jumbo.cl/mundo-bio-natura/libre-de-azucar-anadida</t>
         </is>
       </c>
     </row>
@@ -2526,12 +2526,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Hogar</t>
+          <t>Mundo Bio Natura</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/hogar</t>
+          <t>https://www.jumbo.cl/mundo-bio-natura</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2541,7 +2541,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/hogar</t>
+          <t>https://www.jumbo.cl/mundo-bio-natura</t>
         </is>
       </c>
     </row>
@@ -2558,22 +2558,22 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Electro y Tecno</t>
+          <t>Hogar</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/electro-y-tecnologia</t>
+          <t>https://www.jumbo.cl/hogar</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Cuidado Personal</t>
+          <t>Cocina</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/electro-y-tecnologia/cuidado-personal</t>
+          <t>https://www.jumbo.cl/hogar/cocina</t>
         </is>
       </c>
     </row>
@@ -2590,22 +2590,22 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Electro y Tecno</t>
+          <t>Hogar</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/electro-y-tecnologia</t>
+          <t>https://www.jumbo.cl/hogar</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Electrodomésticos</t>
+          <t>Decoración</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/electro-y-tecnologia/electrodomesticos</t>
+          <t>https://www.jumbo.cl/hogar/decoracion</t>
         </is>
       </c>
     </row>
@@ -2622,22 +2622,22 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Electro y Tecno</t>
+          <t>Hogar</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/electro-y-tecnologia</t>
+          <t>https://www.jumbo.cl/hogar</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Tecnología</t>
+          <t>Ropa de Cama</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/electro-y-tecnologia/tecnologia</t>
+          <t>https://www.jumbo.cl/hogar/ropa-de-cama</t>
         </is>
       </c>
     </row>
@@ -2654,22 +2654,22 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Electro y Tecno</t>
+          <t>Hogar</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/electro-y-tecnologia</t>
+          <t>https://www.jumbo.cl/hogar</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Calefacción</t>
+          <t>Menaje mesa</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/electro-y-tecnologia/calefaccion</t>
+          <t>https://www.jumbo.cl/hogar/menaje-mesa</t>
         </is>
       </c>
     </row>
@@ -2686,12 +2686,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Electro y Tecno</t>
+          <t>Hogar</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/electro-y-tecnologia</t>
+          <t>https://www.jumbo.cl/hogar</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2701,7 +2701,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/electro-y-tecnologia</t>
+          <t>https://www.jumbo.cl/hogar</t>
         </is>
       </c>
     </row>
@@ -2718,22 +2718,22 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Deportes</t>
+          <t>Electro y Tecno</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/deportes</t>
+          <t>https://www.jumbo.cl/electro-y-tecnologia</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Camping</t>
+          <t>Cuidado Personal</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/deportes/camping</t>
+          <t>https://www.jumbo.cl/electro-y-tecnologia/cuidado-personal</t>
         </is>
       </c>
     </row>
@@ -2750,22 +2750,22 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Deportes</t>
+          <t>Electro y Tecno</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/deportes</t>
+          <t>https://www.jumbo.cl/electro-y-tecnologia</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Ciclismo</t>
+          <t>Electrodomésticos</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/deportes/ciclismo</t>
+          <t>https://www.jumbo.cl/electro-y-tecnologia/electrodomesticos</t>
         </is>
       </c>
     </row>
@@ -2782,22 +2782,22 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Deportes</t>
+          <t>Electro y Tecno</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/deportes</t>
+          <t>https://www.jumbo.cl/electro-y-tecnologia</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Fútbol</t>
+          <t>Tecnología</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/deportes/futbol</t>
+          <t>https://www.jumbo.cl/electro-y-tecnologia/tecnologia</t>
         </is>
       </c>
     </row>
@@ -2814,22 +2814,22 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Deportes</t>
+          <t>Electro y Tecno</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/deportes</t>
+          <t>https://www.jumbo.cl/electro-y-tecnologia</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Gimnasia</t>
+          <t>Calefacción</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/deportes/gimnasia</t>
+          <t>https://www.jumbo.cl/electro-y-tecnologia/calefaccion</t>
         </is>
       </c>
     </row>
@@ -2846,12 +2846,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Deportes</t>
+          <t>Electro y Tecno</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/deportes</t>
+          <t>https://www.jumbo.cl/electro-y-tecnologia</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2861,7 +2861,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/deportes</t>
+          <t>https://www.jumbo.cl/electro-y-tecnologia</t>
         </is>
       </c>
     </row>
@@ -2878,22 +2878,22 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Juguetería</t>
+          <t>Deportes</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/jugueteria</t>
+          <t>https://www.jumbo.cl/deportes</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Muñecas, Peluches y Accesorios</t>
+          <t>Camping</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/jugueteria/munecas-peluches-y-accesorios</t>
+          <t>https://www.jumbo.cl/deportes/camping</t>
         </is>
       </c>
     </row>
@@ -2910,22 +2910,22 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Juguetería</t>
+          <t>Deportes</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/jugueteria</t>
+          <t>https://www.jumbo.cl/deportes</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Autos y Autopistas</t>
+          <t>Ciclismo</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/jugueteria/autos-y-autopistas</t>
+          <t>https://www.jumbo.cl/deportes/ciclismo</t>
         </is>
       </c>
     </row>
@@ -2942,22 +2942,22 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Juguetería</t>
+          <t>Deportes</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/jugueteria</t>
+          <t>https://www.jumbo.cl/deportes</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Figuras de Acción y Lanzadores</t>
+          <t>Fútbol</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/jugueteria/figuras-de-accion-y-lanzadores</t>
+          <t>https://www.jumbo.cl/deportes/futbol</t>
         </is>
       </c>
     </row>
@@ -2974,22 +2974,22 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Juguetería</t>
+          <t>Deportes</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/jugueteria</t>
+          <t>https://www.jumbo.cl/deportes</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Juguetes Bebés y Preescolares</t>
+          <t>Gimnasia</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/jugueteria/juguetes-bebes-y-preescolares</t>
+          <t>https://www.jumbo.cl/deportes/gimnasia</t>
         </is>
       </c>
     </row>
@@ -3006,12 +3006,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Juguetería</t>
+          <t>Deportes</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/jugueteria</t>
+          <t>https://www.jumbo.cl/deportes</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3021,7 +3021,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/jugueteria</t>
+          <t>https://www.jumbo.cl/deportes</t>
         </is>
       </c>
     </row>
@@ -3038,22 +3038,22 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Escolares y Librería</t>
+          <t>Juguetería</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/libreria</t>
+          <t>https://www.jumbo.cl/jugueteria</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Artículos de Oficina</t>
+          <t>Muñecas, Peluches y Accesorios</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/libreria/articulos-de-oficina</t>
+          <t>https://www.jumbo.cl/jugueteria/munecas-peluches-y-accesorios</t>
         </is>
       </c>
     </row>
@@ -3070,22 +3070,22 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Escolares y Librería</t>
+          <t>Juguetería</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/libreria</t>
+          <t>https://www.jumbo.cl/jugueteria</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Cuadernos y Caligrafía</t>
+          <t>Autos y Autopistas</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/libreria/cuadernos</t>
+          <t>https://www.jumbo.cl/jugueteria/autos-y-autopistas</t>
         </is>
       </c>
     </row>
@@ -3102,22 +3102,22 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Escolares y Librería</t>
+          <t>Juguetería</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/libreria</t>
+          <t>https://www.jumbo.cl/jugueteria</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Escritura y Dibujo</t>
+          <t>Figuras de Acción y Lanzadores</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/libreria/escritura-y-dibujo</t>
+          <t>https://www.jumbo.cl/jugueteria/figuras-de-accion-y-lanzadores</t>
         </is>
       </c>
     </row>
@@ -3134,22 +3134,22 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Escolares y Librería</t>
+          <t>Juguetería</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/libreria</t>
+          <t>https://www.jumbo.cl/jugueteria</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Set de Manualidades y Regalables</t>
+          <t>Juguetes Bebés y Preescolares</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/libreria/set-de-manualidades-y-regalables</t>
+          <t>https://www.jumbo.cl/jugueteria/juguetes-bebes-y-preescolares</t>
         </is>
       </c>
     </row>
@@ -3166,12 +3166,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Escolares y Librería</t>
+          <t>Juguetería</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/libreria</t>
+          <t>https://www.jumbo.cl/jugueteria</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3181,7 +3181,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/libreria</t>
+          <t>https://www.jumbo.cl/jugueteria</t>
         </is>
       </c>
     </row>
@@ -3198,22 +3198,22 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Farmacia</t>
+          <t>Escolares y Librería</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/farmacia</t>
+          <t>https://www.jumbo.cl/libreria</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Accesorios Médicos</t>
+          <t>Artículos de Oficina</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/farmacia/accesorios-medicos</t>
+          <t>https://www.jumbo.cl/libreria/articulos-de-oficina</t>
         </is>
       </c>
     </row>
@@ -3230,22 +3230,22 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Farmacia</t>
+          <t>Escolares y Librería</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/farmacia</t>
+          <t>https://www.jumbo.cl/libreria</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Higiene Bucal Especialidad</t>
+          <t>Cuadernos y Caligrafía</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/farmacia/higiene-bucal-especialidad</t>
+          <t>https://www.jumbo.cl/libreria/cuadernos</t>
         </is>
       </c>
     </row>
@@ -3262,22 +3262,22 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Farmacia</t>
+          <t>Escolares y Librería</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/farmacia</t>
+          <t>https://www.jumbo.cl/libreria</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Preservativos y Lubricantes</t>
+          <t>Escritura y Dibujo</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/farmacia/preservativos-y-lubricantes</t>
+          <t>https://www.jumbo.cl/libreria/escritura-y-dibujo</t>
         </is>
       </c>
     </row>
@@ -3294,22 +3294,22 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Farmacia</t>
+          <t>Escolares y Librería</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/farmacia</t>
+          <t>https://www.jumbo.cl/libreria</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Primeros Auxilios</t>
+          <t>Set de Manualidades y Regalables</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/farmacia/primeros-auxilios</t>
+          <t>https://www.jumbo.cl/libreria/set-de-manualidades-y-regalables</t>
         </is>
       </c>
     </row>
@@ -3326,12 +3326,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Farmacia</t>
+          <t>Escolares y Librería</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/farmacia</t>
+          <t>https://www.jumbo.cl/libreria</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -3341,7 +3341,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/farmacia</t>
+          <t>https://www.jumbo.cl/libreria</t>
         </is>
       </c>
     </row>
@@ -3358,22 +3358,22 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Automóvil, Ferretería y Jardín</t>
+          <t>Farmacia</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/automovil-ferreteria-y-jardin</t>
+          <t>https://www.jumbo.cl/farmacia</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Ferretería</t>
+          <t>Accesorios Médicos</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/automovil-ferreteria-y-jardin/ferreteria</t>
+          <t>https://www.jumbo.cl/farmacia/accesorios-medicos</t>
         </is>
       </c>
     </row>
@@ -3390,22 +3390,22 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Automóvil, Ferretería y Jardín</t>
+          <t>Farmacia</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/automovil-ferreteria-y-jardin</t>
+          <t>https://www.jumbo.cl/farmacia</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Automóvil</t>
+          <t>Higiene Bucal Especialidad</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/automovil-ferreteria-y-jardin/automovil</t>
+          <t>https://www.jumbo.cl/farmacia/higiene-bucal-especialidad</t>
         </is>
       </c>
     </row>
@@ -3422,22 +3422,22 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Automóvil, Ferretería y Jardín</t>
+          <t>Farmacia</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/automovil-ferreteria-y-jardin</t>
+          <t>https://www.jumbo.cl/farmacia</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Jardín</t>
+          <t>Preservativos y Lubricantes</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/automovil-ferreteria-y-jardin/jardin</t>
+          <t>https://www.jumbo.cl/farmacia/preservativos-y-lubricantes</t>
         </is>
       </c>
     </row>
@@ -3454,22 +3454,22 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Automóvil, Ferretería y Jardín</t>
+          <t>Farmacia</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/automovil-ferreteria-y-jardin</t>
+          <t>https://www.jumbo.cl/farmacia</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Limpieza de Piscinas</t>
+          <t>Primeros Auxilios</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/automovil-ferreteria-y-jardin/limpieza-de-piscinas</t>
+          <t>https://www.jumbo.cl/farmacia/primeros-auxilios</t>
         </is>
       </c>
     </row>
@@ -3486,12 +3486,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Automóvil, Ferretería y Jardín</t>
+          <t>Farmacia</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/automovil-ferreteria-y-jardin</t>
+          <t>https://www.jumbo.cl/farmacia</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -3501,167 +3501,167 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/automovil-ferreteria-y-jardin</t>
+          <t>https://www.jumbo.cl/farmacia</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Lácteos</t>
+          <t>Supermercado</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/lacteos</t>
+          <t>https://www.jumbo.cl/</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Leches</t>
+          <t>Automóvil, Ferretería y Jardín</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/lacteos/leches</t>
+          <t>https://www.jumbo.cl/automovil-ferreteria-y-jardin</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Leche Líquida</t>
+          <t>Ferretería</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/lacteos/leches/leche-liquida</t>
+          <t>https://www.jumbo.cl/automovil-ferreteria-y-jardin/ferreteria</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Lácteos</t>
+          <t>Supermercado</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/lacteos</t>
+          <t>https://www.jumbo.cl/</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Leches</t>
+          <t>Automóvil, Ferretería y Jardín</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/lacteos/leches</t>
+          <t>https://www.jumbo.cl/automovil-ferreteria-y-jardin</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Leche en Polvo</t>
+          <t>Automóvil</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/lacteos/leches/leche-en-polvo</t>
+          <t>https://www.jumbo.cl/automovil-ferreteria-y-jardin/automovil</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Lácteos</t>
+          <t>Supermercado</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/lacteos</t>
+          <t>https://www.jumbo.cl/</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Leches</t>
+          <t>Automóvil, Ferretería y Jardín</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/lacteos/leches</t>
+          <t>https://www.jumbo.cl/automovil-ferreteria-y-jardin</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Mostrar Todo</t>
+          <t>Jardín</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/lacteos/leches</t>
+          <t>https://www.jumbo.cl/automovil-ferreteria-y-jardin/jardin</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Lácteos</t>
+          <t>Supermercado</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/lacteos</t>
+          <t>https://www.jumbo.cl/</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Yoghurt</t>
+          <t>Automóvil, Ferretería y Jardín</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/lacteos/yoghurt</t>
+          <t>https://www.jumbo.cl/automovil-ferreteria-y-jardin</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Yoghurt Batido</t>
+          <t>Limpieza de Piscinas</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/lacteos/yoghurt/yoghurt-batido</t>
+          <t>https://www.jumbo.cl/automovil-ferreteria-y-jardin/limpieza-de-piscinas</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Lácteos</t>
+          <t>Supermercado</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/lacteos</t>
+          <t>https://www.jumbo.cl/</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Yoghurt</t>
+          <t>Automóvil, Ferretería y Jardín</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/lacteos/yoghurt</t>
+          <t>https://www.jumbo.cl/automovil-ferreteria-y-jardin</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Yoghurt con Proteínas</t>
+          <t>Mostrar Todo</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/lacteos/yoghurt/yoghurt-con-proteinas</t>
+          <t>https://www.jumbo.cl/automovil-ferreteria-y-jardin</t>
         </is>
       </c>
     </row>
@@ -3678,22 +3678,22 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Yoghurt</t>
+          <t>Leches</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/lacteos/yoghurt</t>
+          <t>https://www.jumbo.cl/lacteos/leches</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Probióticos y Defensas</t>
+          <t>Leche Líquida</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/lacteos/yoghurt/probi%C3%B3ticos-y-defensas</t>
+          <t>https://www.jumbo.cl/lacteos/leches/leche-liquida</t>
         </is>
       </c>
     </row>
@@ -3710,22 +3710,22 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Yoghurt</t>
+          <t>Leches</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/lacteos/yoghurt</t>
+          <t>https://www.jumbo.cl/lacteos/leches</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Yoghurt Light y Sin Azúcar</t>
+          <t>Leche en Polvo</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/lacteos/yoghurt/yoghurt-light-y-sin-azucar</t>
+          <t>https://www.jumbo.cl/lacteos/leches/leche-en-polvo</t>
         </is>
       </c>
     </row>
@@ -3742,12 +3742,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Yoghurt</t>
+          <t>Leches</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/lacteos/yoghurt</t>
+          <t>https://www.jumbo.cl/lacteos/leches</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -3757,7 +3757,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/lacteos/yoghurt</t>
+          <t>https://www.jumbo.cl/lacteos/leches</t>
         </is>
       </c>
     </row>
@@ -3774,22 +3774,22 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Cremas</t>
+          <t>Yoghurt</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/reposteria/cremas</t>
+          <t>https://www.jumbo.cl/lacteos/yoghurt</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Mostrar Todo</t>
+          <t>Yoghurt Batido</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/reposteria/cremas</t>
+          <t>https://www.jumbo.cl/lacteos/yoghurt/yoghurt-batido</t>
         </is>
       </c>
     </row>
@@ -3806,22 +3806,22 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Huevos</t>
+          <t>Yoghurt</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/lacteos/huevos</t>
+          <t>https://www.jumbo.cl/lacteos/yoghurt</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Huevos de Gallina Libre</t>
+          <t>Yoghurt con Proteínas</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/lacteos/huevos/huevos-de-gallina-libre</t>
+          <t>https://www.jumbo.cl/lacteos/yoghurt/yoghurt-con-proteinas</t>
         </is>
       </c>
     </row>
@@ -3838,22 +3838,22 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Huevos</t>
+          <t>Yoghurt</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/lacteos/huevos</t>
+          <t>https://www.jumbo.cl/lacteos/yoghurt</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Huevos de Gallina</t>
+          <t>Probióticos y Defensas</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/lacteos/huevos/huevos-de-gallina</t>
+          <t>https://www.jumbo.cl/lacteos/yoghurt/probi%C3%B3ticos-y-defensas</t>
         </is>
       </c>
     </row>
@@ -3870,22 +3870,22 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Huevos</t>
+          <t>Yoghurt</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/lacteos/huevos</t>
+          <t>https://www.jumbo.cl/lacteos/yoghurt</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Huevos de Codorniz</t>
+          <t>Yoghurt Light y Sin Azúcar</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/lacteos/huevos/huevos-de-codorniz</t>
+          <t>https://www.jumbo.cl/lacteos/yoghurt/yoghurt-light-y-sin-azucar</t>
         </is>
       </c>
     </row>
@@ -3902,12 +3902,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Huevos</t>
+          <t>Yoghurt</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/lacteos/huevos</t>
+          <t>https://www.jumbo.cl/lacteos/yoghurt</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -3917,7 +3917,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/lacteos/huevos</t>
+          <t>https://www.jumbo.cl/lacteos/yoghurt</t>
         </is>
       </c>
     </row>
@@ -3934,12 +3934,12 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Leches Cultivadas y Bebidas Lácteas</t>
+          <t>Cremas</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/lacteos/leches-cultivadas-y-bebidas-lacteas</t>
+          <t>https://www.jumbo.cl/despensa/reposteria/cremas</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -3949,7 +3949,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/lacteos/leches-cultivadas-y-bebidas-lacteas</t>
+          <t>https://www.jumbo.cl/despensa/reposteria/cremas</t>
         </is>
       </c>
     </row>
@@ -3966,22 +3966,22 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Mantequillas y Margarinas</t>
+          <t>Huevos</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/lacteos/mantequillas-y-margarinas</t>
+          <t>https://www.jumbo.cl/lacteos/huevos</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Mantequillas</t>
+          <t>Huevos de Gallina Libre</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/lacteos/mantequillas-y-margarinas/mantequillas</t>
+          <t>https://www.jumbo.cl/lacteos/huevos/huevos-de-gallina-libre</t>
         </is>
       </c>
     </row>
@@ -3998,22 +3998,22 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Mantequillas y Margarinas</t>
+          <t>Huevos</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/lacteos/mantequillas-y-margarinas</t>
+          <t>https://www.jumbo.cl/lacteos/huevos</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Margarinas</t>
+          <t>Huevos de Gallina</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/lacteos/mantequillas-y-margarinas/margarinas</t>
+          <t>https://www.jumbo.cl/lacteos/huevos/huevos-de-gallina</t>
         </is>
       </c>
     </row>
@@ -4030,22 +4030,22 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Mantequillas y Margarinas</t>
+          <t>Huevos</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/lacteos/mantequillas-y-margarinas</t>
+          <t>https://www.jumbo.cl/lacteos/huevos</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Mantecas</t>
+          <t>Huevos de Codorniz</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/lacteos/mantequillas-y-margarinas/mantecas</t>
+          <t>https://www.jumbo.cl/lacteos/huevos/huevos-de-codorniz</t>
         </is>
       </c>
     </row>
@@ -4062,22 +4062,22 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Mantequillas y Margarinas</t>
+          <t>Huevos</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/lacteos/mantequillas-y-margarinas</t>
+          <t>https://www.jumbo.cl/lacteos/huevos</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Levadura Fresca</t>
+          <t>Mostrar Todo</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/lacteos/mantequillas-y-margarinas/levadura-fresca</t>
+          <t>https://www.jumbo.cl/lacteos/huevos</t>
         </is>
       </c>
     </row>
@@ -4094,12 +4094,12 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Mantequillas y Margarinas</t>
+          <t>Leches Cultivadas y Bebidas Lácteas</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/lacteos/mantequillas-y-margarinas</t>
+          <t>https://www.jumbo.cl/lacteos/leches-cultivadas-y-bebidas-lacteas</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -4109,7 +4109,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/lacteos/mantequillas-y-margarinas</t>
+          <t>https://www.jumbo.cl/lacteos/leches-cultivadas-y-bebidas-lacteas</t>
         </is>
       </c>
     </row>
@@ -4126,22 +4126,22 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Postres</t>
+          <t>Mantequillas y Margarinas</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/lacteos/postres</t>
+          <t>https://www.jumbo.cl/lacteos/mantequillas-y-margarinas</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Postres Lácteos</t>
+          <t>Mantequillas</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/lacteos/postres/postres-lacteos</t>
+          <t>https://www.jumbo.cl/lacteos/mantequillas-y-margarinas/mantequillas</t>
         </is>
       </c>
     </row>
@@ -4158,22 +4158,22 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Postres</t>
+          <t>Mantequillas y Margarinas</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/lacteos/postres</t>
+          <t>https://www.jumbo.cl/lacteos/mantequillas-y-margarinas</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Postres Especiales</t>
+          <t>Margarinas</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/lacteos/postres/postres-especiales</t>
+          <t>https://www.jumbo.cl/lacteos/mantequillas-y-margarinas/margarinas</t>
         </is>
       </c>
     </row>
@@ -4190,22 +4190,22 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Postres</t>
+          <t>Mantequillas y Margarinas</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/lacteos/postres</t>
+          <t>https://www.jumbo.cl/lacteos/mantequillas-y-margarinas</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Postres Frutales</t>
+          <t>Mantecas</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/lacteos/postres/postres-frutales</t>
+          <t>https://www.jumbo.cl/lacteos/mantequillas-y-margarinas/mantecas</t>
         </is>
       </c>
     </row>
@@ -4222,172 +4222,172 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Postres</t>
+          <t>Mantequillas y Margarinas</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/lacteos/postres</t>
+          <t>https://www.jumbo.cl/lacteos/mantequillas-y-margarinas</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Mostrar Todo</t>
+          <t>Levadura Fresca</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/lacteos/postres</t>
+          <t>https://www.jumbo.cl/lacteos/mantequillas-y-margarinas/levadura-fresca</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Despensa</t>
+          <t>Lácteos</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa</t>
+          <t>https://www.jumbo.cl/lacteos</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Fideos, Pastas y Salsas</t>
+          <t>Mantequillas y Margarinas</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/pastas-y-salsas</t>
+          <t>https://www.jumbo.cl/lacteos/mantequillas-y-margarinas</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Pastas y Fideos</t>
+          <t>Mostrar Todo</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/pastas-y-salsas/pastas-y-fideos</t>
+          <t>https://www.jumbo.cl/lacteos/mantequillas-y-margarinas</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Despensa</t>
+          <t>Lácteos</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa</t>
+          <t>https://www.jumbo.cl/lacteos</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Fideos, Pastas y Salsas</t>
+          <t>Postres</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/pastas-y-salsas</t>
+          <t>https://www.jumbo.cl/lacteos/postres</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Lasañas y Rellenos</t>
+          <t>Postres Lácteos</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/pastas-y-salsas/lasanas-y-rellenos</t>
+          <t>https://www.jumbo.cl/lacteos/postres/postres-lacteos</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Despensa</t>
+          <t>Lácteos</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa</t>
+          <t>https://www.jumbo.cl/lacteos</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Fideos, Pastas y Salsas</t>
+          <t>Postres</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/pastas-y-salsas</t>
+          <t>https://www.jumbo.cl/lacteos/postres</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Salsas para Pastas</t>
+          <t>Postres Especiales</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/pastas-y-salsas/salsas-para-pastas</t>
+          <t>https://www.jumbo.cl/lacteos/postres/postres-especiales</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Despensa</t>
+          <t>Lácteos</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa</t>
+          <t>https://www.jumbo.cl/lacteos</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Fideos, Pastas y Salsas</t>
+          <t>Postres</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/pastas-y-salsas</t>
+          <t>https://www.jumbo.cl/lacteos/postres</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Integrales, Sin Gluten y Otros</t>
+          <t>Postres Frutales</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/pastas-y-salsas/integrales-sin-gluten-y-otros</t>
+          <t>https://www.jumbo.cl/lacteos/postres/postres-frutales</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Despensa</t>
+          <t>Lácteos</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa</t>
+          <t>https://www.jumbo.cl/lacteos</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Fideos, Pastas y Salsas</t>
+          <t>Postres</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/pastas-y-salsas</t>
+          <t>https://www.jumbo.cl/lacteos/postres</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -4397,7 +4397,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/pastas-y-salsas</t>
+          <t>https://www.jumbo.cl/lacteos/postres</t>
         </is>
       </c>
     </row>
@@ -4414,22 +4414,22 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Arroz, Legumbres y Semillas</t>
+          <t>Fideos, Pastas y Salsas</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/arroz-y-legumbres</t>
+          <t>https://www.jumbo.cl/despensa/pastas-y-salsas</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Pastas y Fideos</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/arroz-y-legumbres/arroz</t>
+          <t>https://www.jumbo.cl/despensa/pastas-y-salsas/pastas-y-fideos</t>
         </is>
       </c>
     </row>
@@ -4446,22 +4446,22 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Arroz, Legumbres y Semillas</t>
+          <t>Fideos, Pastas y Salsas</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/arroz-y-legumbres</t>
+          <t>https://www.jumbo.cl/despensa/pastas-y-salsas</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Arroz Preparado y Especial</t>
+          <t>Lasañas y Rellenos</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/arroz-y-legumbres/arroz-preparado</t>
+          <t>https://www.jumbo.cl/despensa/pastas-y-salsas/lasanas-y-rellenos</t>
         </is>
       </c>
     </row>
@@ -4478,22 +4478,22 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Arroz, Legumbres y Semillas</t>
+          <t>Fideos, Pastas y Salsas</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/arroz-y-legumbres</t>
+          <t>https://www.jumbo.cl/despensa/pastas-y-salsas</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Porotos y Lentejas</t>
+          <t>Salsas para Pastas</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/arroz-y-legumbres/porotos-y-lentejas</t>
+          <t>https://www.jumbo.cl/despensa/pastas-y-salsas/salsas-para-pastas</t>
         </is>
       </c>
     </row>
@@ -4510,22 +4510,22 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Arroz, Legumbres y Semillas</t>
+          <t>Fideos, Pastas y Salsas</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/arroz-y-legumbres</t>
+          <t>https://www.jumbo.cl/despensa/pastas-y-salsas</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Garbanzos y Arvejas</t>
+          <t>Integrales, Sin Gluten y Otros</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/arroz-y-legumbres/garbanzos-y-arvejas</t>
+          <t>https://www.jumbo.cl/despensa/pastas-y-salsas/integrales-sin-gluten-y-otros</t>
         </is>
       </c>
     </row>
@@ -4542,12 +4542,12 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Arroz, Legumbres y Semillas</t>
+          <t>Fideos, Pastas y Salsas</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/arroz-y-legumbres</t>
+          <t>https://www.jumbo.cl/despensa/pastas-y-salsas</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -4557,7 +4557,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/arroz-y-legumbres</t>
+          <t>https://www.jumbo.cl/despensa/pastas-y-salsas</t>
         </is>
       </c>
     </row>
@@ -4574,22 +4574,22 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Aceites, Sal y Condimentos</t>
+          <t>Arroz, Legumbres y Semillas</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/aceites-sal-y-condimentos</t>
+          <t>https://www.jumbo.cl/despensa/arroz-y-legumbres</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Aceites</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/aceites-sal-y-condimentos/aceite</t>
+          <t>https://www.jumbo.cl/despensa/arroz-y-legumbres/arroz</t>
         </is>
       </c>
     </row>
@@ -4606,22 +4606,22 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Aceites, Sal y Condimentos</t>
+          <t>Arroz, Legumbres y Semillas</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/aceites-sal-y-condimentos</t>
+          <t>https://www.jumbo.cl/despensa/arroz-y-legumbres</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Aceites de Oliva</t>
+          <t>Arroz Preparado y Especial</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/aceites-sal-y-condimentos/aceites-de-oliva</t>
+          <t>https://www.jumbo.cl/despensa/arroz-y-legumbres/arroz-preparado</t>
         </is>
       </c>
     </row>
@@ -4638,22 +4638,22 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Aceites, Sal y Condimentos</t>
+          <t>Arroz, Legumbres y Semillas</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/aceites-sal-y-condimentos</t>
+          <t>https://www.jumbo.cl/despensa/arroz-y-legumbres</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Sal</t>
+          <t>Porotos y Lentejas</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/aceites-sal-y-condimentos/sal</t>
+          <t>https://www.jumbo.cl/despensa/arroz-y-legumbres/porotos-y-lentejas</t>
         </is>
       </c>
     </row>
@@ -4670,22 +4670,22 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Aceites, Sal y Condimentos</t>
+          <t>Arroz, Legumbres y Semillas</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/aceites-sal-y-condimentos</t>
+          <t>https://www.jumbo.cl/despensa/arroz-y-legumbres</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Condimentos</t>
+          <t>Garbanzos y Arvejas</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/aceites-sal-y-condimentos/condimentos</t>
+          <t>https://www.jumbo.cl/despensa/arroz-y-legumbres/garbanzos-y-arvejas</t>
         </is>
       </c>
     </row>
@@ -4702,12 +4702,12 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Aceites, Sal y Condimentos</t>
+          <t>Arroz, Legumbres y Semillas</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/aceites-sal-y-condimentos</t>
+          <t>https://www.jumbo.cl/despensa/arroz-y-legumbres</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -4717,7 +4717,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/aceites-sal-y-condimentos</t>
+          <t>https://www.jumbo.cl/despensa/arroz-y-legumbres</t>
         </is>
       </c>
     </row>
@@ -4734,22 +4734,22 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Conservas</t>
+          <t>Aceites, Sal y Condimentos</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/conservas</t>
+          <t>https://www.jumbo.cl/despensa/aceites-sal-y-condimentos</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Pescados en Conserva</t>
+          <t>Aceites</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/conservas/conservas-de-pescado</t>
+          <t>https://www.jumbo.cl/despensa/aceites-sal-y-condimentos/aceite</t>
         </is>
       </c>
     </row>
@@ -4766,22 +4766,22 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Conservas</t>
+          <t>Aceites, Sal y Condimentos</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/conservas</t>
+          <t>https://www.jumbo.cl/despensa/aceites-sal-y-condimentos</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Mariscos en Conserva</t>
+          <t>Aceites de Oliva</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/conservas/conservas-de-mariscos</t>
+          <t>https://www.jumbo.cl/despensa/aceites-sal-y-condimentos/aceites-de-oliva</t>
         </is>
       </c>
     </row>
@@ -4798,22 +4798,22 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Conservas</t>
+          <t>Aceites, Sal y Condimentos</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/conservas</t>
+          <t>https://www.jumbo.cl/despensa/aceites-sal-y-condimentos</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Frutas en Conserva</t>
+          <t>Sal</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/conservas/fruta-en-conserva</t>
+          <t>https://www.jumbo.cl/despensa/aceites-sal-y-condimentos/sal</t>
         </is>
       </c>
     </row>
@@ -4830,22 +4830,22 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Conservas</t>
+          <t>Aceites, Sal y Condimentos</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/conservas</t>
+          <t>https://www.jumbo.cl/despensa/aceites-sal-y-condimentos</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Verduras en Conserva</t>
+          <t>Condimentos</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/conservas/conservas-de-verduras</t>
+          <t>https://www.jumbo.cl/despensa/aceites-sal-y-condimentos/condimentos</t>
         </is>
       </c>
     </row>
@@ -4862,12 +4862,12 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Conservas</t>
+          <t>Aceites, Sal y Condimentos</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/conservas</t>
+          <t>https://www.jumbo.cl/despensa/aceites-sal-y-condimentos</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -4877,7 +4877,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/conservas</t>
+          <t>https://www.jumbo.cl/despensa/aceites-sal-y-condimentos</t>
         </is>
       </c>
     </row>
@@ -4894,22 +4894,22 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Cóctel y Snacks</t>
+          <t>Conservas</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/coctel-y-snacks</t>
+          <t>https://www.jumbo.cl/despensa/conservas</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Papas Fritas</t>
+          <t>Pescados en Conserva</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/coctel-y-snacks/papas-fritas</t>
+          <t>https://www.jumbo.cl/despensa/conservas/conservas-de-pescado</t>
         </is>
       </c>
     </row>
@@ -4926,22 +4926,22 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Cóctel y Snacks</t>
+          <t>Conservas</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/coctel-y-snacks</t>
+          <t>https://www.jumbo.cl/despensa/conservas</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Ramitas, Suflés y Otros Snacks</t>
+          <t>Mariscos en Conserva</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/coctel-y-snacks/ramitas-sufles-y-otros-snacks</t>
+          <t>https://www.jumbo.cl/despensa/conservas/conservas-de-mariscos</t>
         </is>
       </c>
     </row>
@@ -4958,22 +4958,22 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Cóctel y Snacks</t>
+          <t>Conservas</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/coctel-y-snacks</t>
+          <t>https://www.jumbo.cl/despensa/conservas</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Tortillas</t>
+          <t>Frutas en Conserva</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/coctel-y-snacks/tortillas</t>
+          <t>https://www.jumbo.cl/despensa/conservas/fruta-en-conserva</t>
         </is>
       </c>
     </row>
@@ -4990,22 +4990,22 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Cóctel y Snacks</t>
+          <t>Conservas</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/coctel-y-snacks</t>
+          <t>https://www.jumbo.cl/despensa/conservas</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Snacks Vegetales</t>
+          <t>Verduras en Conserva</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/coctel-y-snacks/snacks-vegetales</t>
+          <t>https://www.jumbo.cl/despensa/conservas/conservas-de-verduras</t>
         </is>
       </c>
     </row>
@@ -5022,12 +5022,12 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Cóctel y Snacks</t>
+          <t>Conservas</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/coctel-y-snacks</t>
+          <t>https://www.jumbo.cl/despensa/conservas</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -5037,7 +5037,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/coctel-y-snacks</t>
+          <t>https://www.jumbo.cl/despensa/conservas</t>
         </is>
       </c>
     </row>
@@ -5054,22 +5054,22 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Aderezos y Salsas</t>
+          <t>Cóctel y Snacks</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/aderezos-y-salsas</t>
+          <t>https://www.jumbo.cl/despensa/coctel-y-snacks</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Mayonesa</t>
+          <t>Papas Fritas</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/aderezos-y-salsas/mayonesa</t>
+          <t>https://www.jumbo.cl/despensa/coctel-y-snacks/papas-fritas</t>
         </is>
       </c>
     </row>
@@ -5086,22 +5086,22 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Aderezos y Salsas</t>
+          <t>Cóctel y Snacks</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/aderezos-y-salsas</t>
+          <t>https://www.jumbo.cl/despensa/coctel-y-snacks</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Ketchup y Barbecue</t>
+          <t>Ramitas, Suflés y Otros Snacks</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/aderezos-y-salsas/ketchup</t>
+          <t>https://www.jumbo.cl/despensa/coctel-y-snacks/ramitas-sufles-y-otros-snacks</t>
         </is>
       </c>
     </row>
@@ -5118,22 +5118,22 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Aderezos y Salsas</t>
+          <t>Cóctel y Snacks</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/aderezos-y-salsas</t>
+          <t>https://www.jumbo.cl/despensa/coctel-y-snacks</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Mostazas y Aderezos</t>
+          <t>Tortillas</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/aderezos-y-salsas/mostazas-y-aderezos</t>
+          <t>https://www.jumbo.cl/despensa/coctel-y-snacks/tortillas</t>
         </is>
       </c>
     </row>
@@ -5150,22 +5150,22 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Aderezos y Salsas</t>
+          <t>Cóctel y Snacks</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/aderezos-y-salsas</t>
+          <t>https://www.jumbo.cl/despensa/coctel-y-snacks</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Ají y Salsas Picantes</t>
+          <t>Snacks Vegetales</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/aderezos-y-salsas/aji</t>
+          <t>https://www.jumbo.cl/despensa/coctel-y-snacks/snacks-vegetales</t>
         </is>
       </c>
     </row>
@@ -5182,12 +5182,12 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Aderezos y Salsas</t>
+          <t>Cóctel y Snacks</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/aderezos-y-salsas</t>
+          <t>https://www.jumbo.cl/despensa/coctel-y-snacks</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -5197,7 +5197,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/aderezos-y-salsas</t>
+          <t>https://www.jumbo.cl/despensa/coctel-y-snacks</t>
         </is>
       </c>
     </row>
@@ -5214,22 +5214,22 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Instantáneos y Sopas</t>
+          <t>Aderezos y Salsas</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/instantaneos-y-sopas</t>
+          <t>https://www.jumbo.cl/despensa/aderezos-y-salsas</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Puré</t>
+          <t>Mayonesa</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/instantaneos-y-sopas/pure</t>
+          <t>https://www.jumbo.cl/despensa/aderezos-y-salsas/mayonesa</t>
         </is>
       </c>
     </row>
@@ -5246,22 +5246,22 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Instantáneos y Sopas</t>
+          <t>Aderezos y Salsas</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/instantaneos-y-sopas</t>
+          <t>https://www.jumbo.cl/despensa/aderezos-y-salsas</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Cremas y Sopas</t>
+          <t>Ketchup y Barbecue</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/instantaneos-y-sopas/cremas-y-sopas</t>
+          <t>https://www.jumbo.cl/despensa/aderezos-y-salsas/ketchup</t>
         </is>
       </c>
     </row>
@@ -5278,22 +5278,22 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Instantáneos y Sopas</t>
+          <t>Aderezos y Salsas</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/instantaneos-y-sopas</t>
+          <t>https://www.jumbo.cl/despensa/aderezos-y-salsas</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Comida Instantánea</t>
+          <t>Mostazas y Aderezos</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/instantaneos-y-sopas/comida-instantanea</t>
+          <t>https://www.jumbo.cl/despensa/aderezos-y-salsas/mostazas-y-aderezos</t>
         </is>
       </c>
     </row>
@@ -5310,22 +5310,22 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Instantáneos y Sopas</t>
+          <t>Aderezos y Salsas</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/instantaneos-y-sopas</t>
+          <t>https://www.jumbo.cl/despensa/aderezos-y-salsas</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Caldos</t>
+          <t>Ají y Salsas Picantes</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/instantaneos-y-sopas/caldos</t>
+          <t>https://www.jumbo.cl/despensa/aderezos-y-salsas/aji</t>
         </is>
       </c>
     </row>
@@ -5342,12 +5342,12 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Instantáneos y Sopas</t>
+          <t>Aderezos y Salsas</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/instantaneos-y-sopas</t>
+          <t>https://www.jumbo.cl/despensa/aderezos-y-salsas</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -5357,7 +5357,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/instantaneos-y-sopas</t>
+          <t>https://www.jumbo.cl/despensa/aderezos-y-salsas</t>
         </is>
       </c>
     </row>
@@ -5374,22 +5374,22 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Harinas y Polvos</t>
+          <t>Instantáneos y Sopas</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/harina-y-complementos</t>
+          <t>https://www.jumbo.cl/despensa/instantaneos-y-sopas</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Harina Blanca</t>
+          <t>Puré</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/harina-y-complementos/harina-blanca</t>
+          <t>https://www.jumbo.cl/despensa/instantaneos-y-sopas/pure</t>
         </is>
       </c>
     </row>
@@ -5406,22 +5406,22 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Harinas y Polvos</t>
+          <t>Instantáneos y Sopas</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/harina-y-complementos</t>
+          <t>https://www.jumbo.cl/despensa/instantaneos-y-sopas</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Harina Integral y Otras</t>
+          <t>Cremas y Sopas</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/harina-y-complementos/harina-integral-y-otras</t>
+          <t>https://www.jumbo.cl/despensa/instantaneos-y-sopas/cremas-y-sopas</t>
         </is>
       </c>
     </row>
@@ -5438,22 +5438,22 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Harinas y Polvos</t>
+          <t>Instantáneos y Sopas</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/harina-y-complementos</t>
+          <t>https://www.jumbo.cl/despensa/instantaneos-y-sopas</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Harina de Maíz, Sémola y Polenta</t>
+          <t>Comida Instantánea</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/harina-y-complementos/harina-de-maiz-semola-y-polenta</t>
+          <t>https://www.jumbo.cl/despensa/instantaneos-y-sopas/comida-instantanea</t>
         </is>
       </c>
     </row>
@@ -5470,22 +5470,22 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Harinas y Polvos</t>
+          <t>Instantáneos y Sopas</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/harina-y-complementos</t>
+          <t>https://www.jumbo.cl/despensa/instantaneos-y-sopas</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Polvo, Levadura y Almidón</t>
+          <t>Caldos</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/harina-y-complementos/polvo-levadura-y-almidon</t>
+          <t>https://www.jumbo.cl/despensa/instantaneos-y-sopas/caldos</t>
         </is>
       </c>
     </row>
@@ -5502,12 +5502,12 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Harinas y Polvos</t>
+          <t>Instantáneos y Sopas</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/harina-y-complementos</t>
+          <t>https://www.jumbo.cl/despensa/instantaneos-y-sopas</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -5517,7 +5517,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/harina-y-complementos</t>
+          <t>https://www.jumbo.cl/despensa/instantaneos-y-sopas</t>
         </is>
       </c>
     </row>
@@ -5534,22 +5534,22 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Repostería</t>
+          <t>Harinas y Polvos</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/reposteria</t>
+          <t>https://www.jumbo.cl/despensa/harina-y-complementos</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Cremas</t>
+          <t>Harina Blanca</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/reposteria/cremas</t>
+          <t>https://www.jumbo.cl/despensa/harina-y-complementos/harina-blanca</t>
         </is>
       </c>
     </row>
@@ -5566,22 +5566,22 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Repostería</t>
+          <t>Harinas y Polvos</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/reposteria</t>
+          <t>https://www.jumbo.cl/despensa/harina-y-complementos</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Leches Condensadas y Evaporadas</t>
+          <t>Harina Integral y Otras</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/reposteria/leches-condensadas-y-evaporadas</t>
+          <t>https://www.jumbo.cl/despensa/harina-y-complementos/harina-integral-y-otras</t>
         </is>
       </c>
     </row>
@@ -5598,22 +5598,22 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Repostería</t>
+          <t>Harinas y Polvos</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/reposteria</t>
+          <t>https://www.jumbo.cl/despensa/harina-y-complementos</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Coberturas</t>
+          <t>Harina de Maíz, Sémola y Polenta</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/reposteria/coberturas</t>
+          <t>https://www.jumbo.cl/despensa/harina-y-complementos/harina-de-maiz-semola-y-polenta</t>
         </is>
       </c>
     </row>
@@ -5630,22 +5630,22 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Repostería</t>
+          <t>Harinas y Polvos</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/reposteria</t>
+          <t>https://www.jumbo.cl/despensa/harina-y-complementos</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Decoración</t>
+          <t>Polvo, Levadura y Almidón</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/reposteria/decoracion</t>
+          <t>https://www.jumbo.cl/despensa/harina-y-complementos/polvo-levadura-y-almidon</t>
         </is>
       </c>
     </row>
@@ -5662,12 +5662,12 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Repostería</t>
+          <t>Harinas y Polvos</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/reposteria</t>
+          <t>https://www.jumbo.cl/despensa/harina-y-complementos</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -5677,7 +5677,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/reposteria</t>
+          <t>https://www.jumbo.cl/despensa/harina-y-complementos</t>
         </is>
       </c>
     </row>
@@ -5694,22 +5694,22 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Comidas Étnicas</t>
+          <t>Repostería</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/comidas-etnicas</t>
+          <t>https://www.jumbo.cl/despensa/reposteria</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Mexicana</t>
+          <t>Cremas</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/comidas-etnicas/mexicana</t>
+          <t>https://www.jumbo.cl/despensa/reposteria/cremas</t>
         </is>
       </c>
     </row>
@@ -5726,22 +5726,22 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Comidas Étnicas</t>
+          <t>Repostería</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/comidas-etnicas</t>
+          <t>https://www.jumbo.cl/despensa/reposteria</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Oriental</t>
+          <t>Leches Condensadas y Evaporadas</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/comidas-etnicas/oriental</t>
+          <t>https://www.jumbo.cl/despensa/reposteria/leches-condensadas-y-evaporadas</t>
         </is>
       </c>
     </row>
@@ -5758,22 +5758,22 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Comidas Étnicas</t>
+          <t>Repostería</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/comidas-etnicas</t>
+          <t>https://www.jumbo.cl/despensa/reposteria</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Peruana</t>
+          <t>Coberturas</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/comidas-etnicas/peruana</t>
+          <t>https://www.jumbo.cl/despensa/reposteria/coberturas</t>
         </is>
       </c>
     </row>
@@ -5790,182 +5790,182 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Comidas Étnicas</t>
+          <t>Repostería</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/comidas-etnicas</t>
+          <t>https://www.jumbo.cl/despensa/reposteria</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Mostrar Todo</t>
+          <t>Decoración</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/despensa/comidas-etnicas</t>
+          <t>https://www.jumbo.cl/despensa/reposteria/decoracion</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Frutas y Verduras</t>
+          <t>Despensa</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/frutas-y-verduras</t>
+          <t>https://www.jumbo.cl/despensa</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Frutas</t>
+          <t>Repostería</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/frutas-y-verduras/frutas</t>
+          <t>https://www.jumbo.cl/despensa/reposteria</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Frutas</t>
+          <t>Mostrar Todo</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/frutas-y-verduras/frutas/fruta</t>
+          <t>https://www.jumbo.cl/despensa/reposteria</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Frutas y Verduras</t>
+          <t>Despensa</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/frutas-y-verduras</t>
+          <t>https://www.jumbo.cl/despensa</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Frutas</t>
+          <t>Comidas Étnicas</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/frutas-y-verduras/frutas</t>
+          <t>https://www.jumbo.cl/despensa/comidas-etnicas</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Frutas Orgánicas</t>
+          <t>Mexicana</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/frutas-y-verduras/frutas/frutas-organicas</t>
+          <t>https://www.jumbo.cl/despensa/comidas-etnicas/mexicana</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Frutas y Verduras</t>
+          <t>Despensa</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/frutas-y-verduras</t>
+          <t>https://www.jumbo.cl/despensa</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Frutas</t>
+          <t>Comidas Étnicas</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/frutas-y-verduras/frutas</t>
+          <t>https://www.jumbo.cl/despensa/comidas-etnicas</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Frutas Picadas</t>
+          <t>Oriental</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/frutas-y-verduras/frutas/frutas-picadas</t>
+          <t>https://www.jumbo.cl/despensa/comidas-etnicas/oriental</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Frutas y Verduras</t>
+          <t>Despensa</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/frutas-y-verduras</t>
+          <t>https://www.jumbo.cl/despensa</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Frutas</t>
+          <t>Comidas Étnicas</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/frutas-y-verduras/frutas</t>
+          <t>https://www.jumbo.cl/despensa/comidas-etnicas</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Mostrar Todo</t>
+          <t>Peruana</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/frutas-y-verduras/frutas</t>
+          <t>https://www.jumbo.cl/despensa/comidas-etnicas/peruana</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Frutas y Verduras</t>
+          <t>Despensa</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/frutas-y-verduras</t>
+          <t>https://www.jumbo.cl/despensa</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Verduras</t>
+          <t>Comidas Étnicas</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/frutas-y-verduras/verduras</t>
+          <t>https://www.jumbo.cl/despensa/comidas-etnicas</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Verduras</t>
+          <t>Mostrar Todo</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/frutas-y-verduras/verduras/verdura</t>
+          <t>https://www.jumbo.cl/despensa/comidas-etnicas</t>
         </is>
       </c>
     </row>
@@ -5982,22 +5982,22 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Verduras</t>
+          <t>Frutas</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/frutas-y-verduras/verduras</t>
+          <t>https://www.jumbo.cl/frutas-y-verduras/frutas</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Verduras Orgánicas</t>
+          <t>Frutas</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/frutas-y-verduras/verduras/verduras-organicas</t>
+          <t>https://www.jumbo.cl/frutas-y-verduras/frutas/fruta</t>
         </is>
       </c>
     </row>
@@ -6014,22 +6014,22 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Verduras</t>
+          <t>Frutas</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/frutas-y-verduras/verduras</t>
+          <t>https://www.jumbo.cl/frutas-y-verduras/frutas</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Ensaladas</t>
+          <t>Frutas Orgánicas</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/frutas-y-verduras/verduras/ensaladas</t>
+          <t>https://www.jumbo.cl/frutas-y-verduras/frutas/frutas-organicas</t>
         </is>
       </c>
     </row>
@@ -6046,22 +6046,22 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Verduras</t>
+          <t>Frutas</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/frutas-y-verduras/verduras</t>
+          <t>https://www.jumbo.cl/frutas-y-verduras/frutas</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Hierbas y Especias</t>
+          <t>Frutas Picadas</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/frutas-y-verduras/verduras/hierbas-y-especias</t>
+          <t>https://www.jumbo.cl/frutas-y-verduras/frutas/frutas-picadas</t>
         </is>
       </c>
     </row>
@@ -6078,12 +6078,12 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Verduras</t>
+          <t>Frutas</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/frutas-y-verduras/verduras</t>
+          <t>https://www.jumbo.cl/frutas-y-verduras/frutas</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -6093,7 +6093,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/frutas-y-verduras/verduras</t>
+          <t>https://www.jumbo.cl/frutas-y-verduras/frutas</t>
         </is>
       </c>
     </row>
@@ -6110,22 +6110,22 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Frutos Secos y Semillas</t>
+          <t>Verduras</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/frutas-y-verduras/frutos-secos-y-semillas</t>
+          <t>https://www.jumbo.cl/frutas-y-verduras/verduras</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Frutos Secos</t>
+          <t>Verduras</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/frutas-y-verduras/frutos-secos-y-semillas/frutos-secos</t>
+          <t>https://www.jumbo.cl/frutas-y-verduras/verduras/verdura</t>
         </is>
       </c>
     </row>
@@ -6142,22 +6142,22 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Frutos Secos y Semillas</t>
+          <t>Verduras</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/frutas-y-verduras/frutos-secos-y-semillas</t>
+          <t>https://www.jumbo.cl/frutas-y-verduras/verduras</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Frutas Deshidratadas</t>
+          <t>Verduras Orgánicas</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/frutas-y-verduras/frutos-secos-y-semillas/frutas-deshidratadas</t>
+          <t>https://www.jumbo.cl/frutas-y-verduras/verduras/verduras-organicas</t>
         </is>
       </c>
     </row>
@@ -6174,22 +6174,22 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Frutos Secos y Semillas</t>
+          <t>Verduras</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/frutas-y-verduras/frutos-secos-y-semillas</t>
+          <t>https://www.jumbo.cl/frutas-y-verduras/verduras</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Semillas y Granos</t>
+          <t>Ensaladas</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/frutas-y-verduras/frutos-secos-y-semillas/semillas-y-granos</t>
+          <t>https://www.jumbo.cl/frutas-y-verduras/verduras/ensaladas</t>
         </is>
       </c>
     </row>
@@ -6206,172 +6206,172 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Frutos Secos y Semillas</t>
+          <t>Verduras</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/frutas-y-verduras/frutos-secos-y-semillas</t>
+          <t>https://www.jumbo.cl/frutas-y-verduras/verduras</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Mostrar Todo</t>
+          <t>Hierbas y Especias</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/frutas-y-verduras/frutos-secos-y-semillas</t>
+          <t>https://www.jumbo.cl/frutas-y-verduras/verduras/hierbas-y-especias</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Limpieza</t>
+          <t>Frutas y Verduras</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/limpieza</t>
+          <t>https://www.jumbo.cl/frutas-y-verduras</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Papeles Hogar</t>
+          <t>Verduras</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/limpieza/papeles-hogar</t>
+          <t>https://www.jumbo.cl/frutas-y-verduras/verduras</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Papel Higiénico</t>
+          <t>Mostrar Todo</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/limpieza/papeles-hogar/papel-higienico</t>
+          <t>https://www.jumbo.cl/frutas-y-verduras/verduras</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Limpieza</t>
+          <t>Frutas y Verduras</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/limpieza</t>
+          <t>https://www.jumbo.cl/frutas-y-verduras</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Papeles Hogar</t>
+          <t>Frutos Secos y Semillas</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/limpieza/papeles-hogar</t>
+          <t>https://www.jumbo.cl/frutas-y-verduras/frutos-secos-y-semillas</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Pañuelos</t>
+          <t>Frutos Secos</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/limpieza/papeles-hogar/panuelos</t>
+          <t>https://www.jumbo.cl/frutas-y-verduras/frutos-secos-y-semillas/frutos-secos</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Limpieza</t>
+          <t>Frutas y Verduras</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/limpieza</t>
+          <t>https://www.jumbo.cl/frutas-y-verduras</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Papeles Hogar</t>
+          <t>Frutos Secos y Semillas</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/limpieza/papeles-hogar</t>
+          <t>https://www.jumbo.cl/frutas-y-verduras/frutos-secos-y-semillas</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Servilletas</t>
+          <t>Frutas Deshidratadas</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/limpieza/papeles-hogar/servilletas</t>
+          <t>https://www.jumbo.cl/frutas-y-verduras/frutos-secos-y-semillas/frutas-deshidratadas</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Limpieza</t>
+          <t>Frutas y Verduras</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/limpieza</t>
+          <t>https://www.jumbo.cl/frutas-y-verduras</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Papeles Hogar</t>
+          <t>Frutos Secos y Semillas</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/limpieza/papeles-hogar</t>
+          <t>https://www.jumbo.cl/frutas-y-verduras/frutos-secos-y-semillas</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Toallas de Papel</t>
+          <t>Semillas y Granos</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/limpieza/papeles-hogar/toallas-de-papel</t>
+          <t>https://www.jumbo.cl/frutas-y-verduras/frutos-secos-y-semillas/semillas-y-granos</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Limpieza</t>
+          <t>Frutas y Verduras</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/limpieza</t>
+          <t>https://www.jumbo.cl/frutas-y-verduras</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Papeles Hogar</t>
+          <t>Frutos Secos y Semillas</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/limpieza/papeles-hogar</t>
+          <t>https://www.jumbo.cl/frutas-y-verduras/frutos-secos-y-semillas</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/limpieza/papeles-hogar</t>
+          <t>https://www.jumbo.cl/frutas-y-verduras/frutos-secos-y-semillas</t>
         </is>
       </c>
     </row>
@@ -6398,22 +6398,22 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Limpieza de Ropa</t>
+          <t>Papeles Hogar</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/limpieza/limpieza-de-ropa</t>
+          <t>https://www.jumbo.cl/limpieza/papeles-hogar</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Detergente Líquido</t>
+          <t>Papel Higiénico</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/limpieza/limpieza-de-ropa/detergente-liquido</t>
+          <t>https://www.jumbo.cl/limpieza/papeles-hogar/papel-higienico</t>
         </is>
       </c>
     </row>
@@ -6430,22 +6430,22 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Limpieza de Ropa</t>
+          <t>Papeles Hogar</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/limpieza/limpieza-de-ropa</t>
+          <t>https://www.jumbo.cl/limpieza/papeles-hogar</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Detergente en Polvo</t>
+          <t>Pañuelos</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/limpieza/limpieza-de-ropa/detergente-en-polvo</t>
+          <t>https://www.jumbo.cl/limpieza/papeles-hogar/panuelos</t>
         </is>
       </c>
     </row>
@@ -6462,22 +6462,22 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Limpieza de Ropa</t>
+          <t>Papeles Hogar</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/limpieza/limpieza-de-ropa</t>
+          <t>https://www.jumbo.cl/limpieza/papeles-hogar</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Suavizantes</t>
+          <t>Servilletas</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/limpieza/limpieza-de-ropa/suavizantes</t>
+          <t>https://www.jumbo.cl/limpieza/papeles-hogar/servilletas</t>
         </is>
       </c>
     </row>
@@ -6494,22 +6494,22 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Limpieza de Ropa</t>
+          <t>Papeles Hogar</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/limpieza/limpieza-de-ropa</t>
+          <t>https://www.jumbo.cl/limpieza/papeles-hogar</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Tratamiento de Ropa</t>
+          <t>Toallas de Papel</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/limpieza/limpieza-de-ropa/tratamiento-de-ropa</t>
+          <t>https://www.jumbo.cl/limpieza/papeles-hogar/toallas-de-papel</t>
         </is>
       </c>
     </row>
@@ -6526,12 +6526,12 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Limpieza de Ropa</t>
+          <t>Papeles Hogar</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/limpieza/limpieza-de-ropa</t>
+          <t>https://www.jumbo.cl/limpieza/papeles-hogar</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -6541,7 +6541,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/limpieza/limpieza-de-ropa</t>
+          <t>https://www.jumbo.cl/limpieza/papeles-hogar</t>
         </is>
       </c>
     </row>
@@ -6558,22 +6558,22 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Baño y Cocina</t>
+          <t>Limpieza de Ropa</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/limpieza/bano-y-cocina</t>
+          <t>https://www.jumbo.cl/limpieza/limpieza-de-ropa</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Lavalozas</t>
+          <t>Detergente Líquido</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/limpieza/bano-y-cocina/lavalozas</t>
+          <t>https://www.jumbo.cl/limpieza/limpieza-de-ropa/detergente-liquido</t>
         </is>
       </c>
     </row>
@@ -6590,22 +6590,22 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Baño y Cocina</t>
+          <t>Limpieza de Ropa</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/limpieza/bano-y-cocina</t>
+          <t>https://www.jumbo.cl/limpieza/limpieza-de-ropa</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Lavavajillas</t>
+          <t>Detergente en Polvo</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/limpieza/bano-y-cocina/lavavajillas</t>
+          <t>https://www.jumbo.cl/limpieza/limpieza-de-ropa/detergente-en-polvo</t>
         </is>
       </c>
     </row>
@@ -6622,22 +6622,22 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Baño y Cocina</t>
+          <t>Limpieza de Ropa</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/limpieza/bano-y-cocina</t>
+          <t>https://www.jumbo.cl/limpieza/limpieza-de-ropa</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Limpiadores Baño y Cocina</t>
+          <t>Suavizantes</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/limpieza/bano-y-cocina/limpiadores-bano-y-cocina</t>
+          <t>https://www.jumbo.cl/limpieza/limpieza-de-ropa/suavizantes</t>
         </is>
       </c>
     </row>
@@ -6654,22 +6654,22 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Baño y Cocina</t>
+          <t>Limpieza de Ropa</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/limpieza/bano-y-cocina</t>
+          <t>https://www.jumbo.cl/limpieza/limpieza-de-ropa</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Limpiavidrios</t>
+          <t>Tratamiento de Ropa</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/limpieza/bano-y-cocina/limpiavidrios</t>
+          <t>https://www.jumbo.cl/limpieza/limpieza-de-ropa/tratamiento-de-ropa</t>
         </is>
       </c>
     </row>
@@ -6686,12 +6686,12 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Baño y Cocina</t>
+          <t>Limpieza de Ropa</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/limpieza/bano-y-cocina</t>
+          <t>https://www.jumbo.cl/limpieza/limpieza-de-ropa</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -6701,7 +6701,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/limpieza/bano-y-cocina</t>
+          <t>https://www.jumbo.cl/limpieza/limpieza-de-ropa</t>
         </is>
       </c>
     </row>
@@ -6718,22 +6718,22 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Accesorios de Limpieza</t>
+          <t>Baño y Cocina</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/limpieza/accesorios-de-limpieza</t>
+          <t>https://www.jumbo.cl/limpieza/bano-y-cocina</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Bolsas de Basura y Ecológicas</t>
+          <t>Lavalozas</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/limpieza/accesorios-de-limpieza/bolsas-de-basura-y-ecologicas</t>
+          <t>https://www.jumbo.cl/limpieza/bano-y-cocina/lavalozas</t>
         </is>
       </c>
     </row>
@@ -6750,22 +6750,22 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Accesorios de Limpieza</t>
+          <t>Baño y Cocina</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/limpieza/accesorios-de-limpieza</t>
+          <t>https://www.jumbo.cl/limpieza/bano-y-cocina</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Guantes, Esponjas y Paños</t>
+          <t>Lavavajillas</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/limpieza/accesorios-de-limpieza/guantes-esponjas-y-panos</t>
+          <t>https://www.jumbo.cl/limpieza/bano-y-cocina/lavavajillas</t>
         </is>
       </c>
     </row>
@@ -6782,22 +6782,22 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Accesorios de Limpieza</t>
+          <t>Baño y Cocina</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/limpieza/accesorios-de-limpieza</t>
+          <t>https://www.jumbo.cl/limpieza/bano-y-cocina</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Plumeros y Escobas</t>
+          <t>Limpiadores Baño y Cocina</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/limpieza/accesorios-de-limpieza/plumeros-y-escobas</t>
+          <t>https://www.jumbo.cl/limpieza/bano-y-cocina/limpiadores-bano-y-cocina</t>
         </is>
       </c>
     </row>
@@ -6814,22 +6814,22 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Accesorios de Limpieza</t>
+          <t>Baño y Cocina</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/limpieza/accesorios-de-limpieza</t>
+          <t>https://www.jumbo.cl/limpieza/bano-y-cocina</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Limpiadores de Calzado</t>
+          <t>Limpiavidrios</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/limpieza/accesorios-de-limpieza/limpiadores-de-calzado</t>
+          <t>https://www.jumbo.cl/limpieza/bano-y-cocina/limpiavidrios</t>
         </is>
       </c>
     </row>
@@ -6846,12 +6846,12 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Accesorios de Limpieza</t>
+          <t>Baño y Cocina</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/limpieza/accesorios-de-limpieza</t>
+          <t>https://www.jumbo.cl/limpieza/bano-y-cocina</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -6861,7 +6861,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/limpieza/accesorios-de-limpieza</t>
+          <t>https://www.jumbo.cl/limpieza/bano-y-cocina</t>
         </is>
       </c>
     </row>
@@ -6878,22 +6878,22 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Aerosoles y Desinfectantes</t>
+          <t>Accesorios de Limpieza</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/limpieza/aerosoles-y-desinfectantes</t>
+          <t>https://www.jumbo.cl/limpieza/accesorios-de-limpieza</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Cloros</t>
+          <t>Bolsas de Basura y Ecológicas</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/limpieza/aerosoles-y-desinfectantes/cloros</t>
+          <t>https://www.jumbo.cl/limpieza/accesorios-de-limpieza/bolsas-de-basura-y-ecologicas</t>
         </is>
       </c>
     </row>
@@ -6910,22 +6910,22 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Aerosoles y Desinfectantes</t>
+          <t>Accesorios de Limpieza</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/limpieza/aerosoles-y-desinfectantes</t>
+          <t>https://www.jumbo.cl/limpieza/accesorios-de-limpieza</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Desinfectantes</t>
+          <t>Guantes, Esponjas y Paños</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/limpieza/aerosoles-y-desinfectantes/desinfectantes</t>
+          <t>https://www.jumbo.cl/limpieza/accesorios-de-limpieza/guantes-esponjas-y-panos</t>
         </is>
       </c>
     </row>
@@ -6942,22 +6942,22 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Aerosoles y Desinfectantes</t>
+          <t>Accesorios de Limpieza</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/limpieza/aerosoles-y-desinfectantes</t>
+          <t>https://www.jumbo.cl/limpieza/accesorios-de-limpieza</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Desodorantes Ambientales</t>
+          <t>Plumeros y Escobas</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/limpieza/aerosoles-y-desinfectantes/desodorantes-ambientales</t>
+          <t>https://www.jumbo.cl/limpieza/accesorios-de-limpieza/plumeros-y-escobas</t>
         </is>
       </c>
     </row>
@@ -6974,22 +6974,22 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Aerosoles y Desinfectantes</t>
+          <t>Accesorios de Limpieza</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/limpieza/aerosoles-y-desinfectantes</t>
+          <t>https://www.jumbo.cl/limpieza/accesorios-de-limpieza</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Insecticidas</t>
+          <t>Limpiadores de Calzado</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/limpieza/aerosoles-y-desinfectantes/insecticidas</t>
+          <t>https://www.jumbo.cl/limpieza/accesorios-de-limpieza/limpiadores-de-calzado</t>
         </is>
       </c>
     </row>
@@ -7006,12 +7006,12 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Aerosoles y Desinfectantes</t>
+          <t>Accesorios de Limpieza</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/limpieza/aerosoles-y-desinfectantes</t>
+          <t>https://www.jumbo.cl/limpieza/accesorios-de-limpieza</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/limpieza/aerosoles-y-desinfectantes</t>
+          <t>https://www.jumbo.cl/limpieza/accesorios-de-limpieza</t>
         </is>
       </c>
     </row>
@@ -7038,22 +7038,22 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Pisos y Muebles</t>
+          <t>Aerosoles y Desinfectantes</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/limpieza/pisos-y-muebles</t>
+          <t>https://www.jumbo.cl/limpieza/aerosoles-y-desinfectantes</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Ceras</t>
+          <t>Cloros</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/limpieza/pisos-y-muebles/ceras</t>
+          <t>https://www.jumbo.cl/limpieza/aerosoles-y-desinfectantes/cloros</t>
         </is>
       </c>
     </row>
@@ -7070,22 +7070,22 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Pisos y Muebles</t>
+          <t>Aerosoles y Desinfectantes</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/limpieza/pisos-y-muebles</t>
+          <t>https://www.jumbo.cl/limpieza/aerosoles-y-desinfectantes</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Limpiadores Piso</t>
+          <t>Desinfectantes</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/limpieza/pisos-y-muebles/limpiadores-piso</t>
+          <t>https://www.jumbo.cl/limpieza/aerosoles-y-desinfectantes/desinfectantes</t>
         </is>
       </c>
     </row>
@@ -7102,22 +7102,22 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Pisos y Muebles</t>
+          <t>Aerosoles y Desinfectantes</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/limpieza/pisos-y-muebles</t>
+          <t>https://www.jumbo.cl/limpieza/aerosoles-y-desinfectantes</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Lustramuebles y Limpiadores de metales</t>
+          <t>Desodorantes Ambientales</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/limpieza/pisos-y-muebles/lustramuebles-y-limpiadores-de-metales</t>
+          <t>https://www.jumbo.cl/limpieza/aerosoles-y-desinfectantes/desodorantes-ambientales</t>
         </is>
       </c>
     </row>
@@ -7134,172 +7134,172 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Pisos y Muebles</t>
+          <t>Aerosoles y Desinfectantes</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/limpieza/pisos-y-muebles</t>
+          <t>https://www.jumbo.cl/limpieza/aerosoles-y-desinfectantes</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Mostrar Todo</t>
+          <t>Insecticidas</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/limpieza/pisos-y-muebles</t>
+          <t>https://www.jumbo.cl/limpieza/aerosoles-y-desinfectantes/insecticidas</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Carnicería</t>
+          <t>Limpieza</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/carniceria</t>
+          <t>https://www.jumbo.cl/limpieza</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Vacuno</t>
+          <t>Aerosoles y Desinfectantes</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/carniceria/vacuno</t>
+          <t>https://www.jumbo.cl/limpieza/aerosoles-y-desinfectantes</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Carnes Americana</t>
+          <t>Mostrar Todo</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/carniceria/vacuno/carnes-americana</t>
+          <t>https://www.jumbo.cl/limpieza/aerosoles-y-desinfectantes</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Carnicería</t>
+          <t>Limpieza</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/carniceria</t>
+          <t>https://www.jumbo.cl/limpieza</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Vacuno</t>
+          <t>Pisos y Muebles</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/carniceria/vacuno</t>
+          <t>https://www.jumbo.cl/limpieza/pisos-y-muebles</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Carnes Premium</t>
+          <t>Ceras</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/carniceria/vacuno/carnes-premium</t>
+          <t>https://www.jumbo.cl/limpieza/pisos-y-muebles/ceras</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Carnicería</t>
+          <t>Limpieza</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/carniceria</t>
+          <t>https://www.jumbo.cl/limpieza</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Vacuno</t>
+          <t>Pisos y Muebles</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/carniceria/vacuno</t>
+          <t>https://www.jumbo.cl/limpieza/pisos-y-muebles</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Carnes para Parrilla</t>
+          <t>Limpiadores Piso</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/carniceria/vacuno/carnes-para-parrilla</t>
+          <t>https://www.jumbo.cl/limpieza/pisos-y-muebles/limpiadores-piso</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Carnicería</t>
+          <t>Limpieza</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/carniceria</t>
+          <t>https://www.jumbo.cl/limpieza</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Vacuno</t>
+          <t>Pisos y Muebles</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/carniceria/vacuno</t>
+          <t>https://www.jumbo.cl/limpieza/pisos-y-muebles</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Carnes para Horno</t>
+          <t>Lustramuebles y Limpiadores de metales</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/carniceria/vacuno/carnes-para-horno</t>
+          <t>https://www.jumbo.cl/limpieza/pisos-y-muebles/lustramuebles-y-limpiadores-de-metales</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Carnicería</t>
+          <t>Limpieza</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/carniceria</t>
+          <t>https://www.jumbo.cl/limpieza</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Vacuno</t>
+          <t>Pisos y Muebles</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/carniceria/vacuno</t>
+          <t>https://www.jumbo.cl/limpieza/pisos-y-muebles</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -7309,7 +7309,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/carniceria/vacuno</t>
+          <t>https://www.jumbo.cl/limpieza/pisos-y-muebles</t>
         </is>
       </c>
     </row>
@@ -7326,22 +7326,22 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Cerdo</t>
+          <t>Vacuno</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/carniceria/cerdo</t>
+          <t>https://www.jumbo.cl/carniceria/vacuno</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Costillar y Costillitas</t>
+          <t>Carnes Americana</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/carniceria/cerdo/costillar-y-costillitas</t>
+          <t>https://www.jumbo.cl/carniceria/vacuno/carnes-americana</t>
         </is>
       </c>
     </row>
@@ -7358,22 +7358,22 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Cerdo</t>
+          <t>Vacuno</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/carniceria/cerdo</t>
+          <t>https://www.jumbo.cl/carniceria/vacuno</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Chuletas y Filetes</t>
+          <t>Carnes Premium</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/carniceria/cerdo/chuletas-y-filetes</t>
+          <t>https://www.jumbo.cl/carniceria/vacuno/carnes-premium</t>
         </is>
       </c>
     </row>
@@ -7390,22 +7390,22 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Cerdo</t>
+          <t>Vacuno</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/carniceria/cerdo</t>
+          <t>https://www.jumbo.cl/carniceria/vacuno</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Pulpa y Lomo de Cerdo</t>
+          <t>Carnes para Parrilla</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/carniceria/cerdo/pulpa-y-lomo-de-cerdo</t>
+          <t>https://www.jumbo.cl/carniceria/vacuno/carnes-para-parrilla</t>
         </is>
       </c>
     </row>
@@ -7422,22 +7422,22 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Cerdo</t>
+          <t>Vacuno</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/carniceria/cerdo</t>
+          <t>https://www.jumbo.cl/carniceria/vacuno</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Malaya y Otros Cortes</t>
+          <t>Carnes para Horno</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/carniceria/cerdo/malaya-y-otros-cortes</t>
+          <t>https://www.jumbo.cl/carniceria/vacuno/carnes-para-horno</t>
         </is>
       </c>
     </row>
@@ -7454,12 +7454,12 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Cerdo</t>
+          <t>Vacuno</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/carniceria/cerdo</t>
+          <t>https://www.jumbo.cl/carniceria/vacuno</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -7469,7 +7469,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/carniceria/cerdo</t>
+          <t>https://www.jumbo.cl/carniceria/vacuno</t>
         </is>
       </c>
     </row>
@@ -7486,22 +7486,22 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Cordero</t>
+          <t>Cerdo</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/carniceria/cordero</t>
+          <t>https://www.jumbo.cl/carniceria/cerdo</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Mostrar Todo</t>
+          <t>Costillar y Costillitas</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/carniceria/cordero</t>
+          <t>https://www.jumbo.cl/carniceria/cerdo/costillar-y-costillitas</t>
         </is>
       </c>
     </row>
@@ -7518,22 +7518,22 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Pavo</t>
+          <t>Cerdo</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/carniceria/pavo</t>
+          <t>https://www.jumbo.cl/carniceria/cerdo</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Filetes y Pechugas de Pavo</t>
+          <t>Chuletas y Filetes</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/carniceria/pavo/filetes-y-pechugas-de-pavo</t>
+          <t>https://www.jumbo.cl/carniceria/cerdo/chuletas-y-filetes</t>
         </is>
       </c>
     </row>
@@ -7550,22 +7550,22 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Pavo</t>
+          <t>Cerdo</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/carniceria/pavo</t>
+          <t>https://www.jumbo.cl/carniceria/cerdo</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Pavo Entero</t>
+          <t>Pulpa y Lomo de Cerdo</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/carniceria/pavo/pavo-entero</t>
+          <t>https://www.jumbo.cl/carniceria/cerdo/pulpa-y-lomo-de-cerdo</t>
         </is>
       </c>
     </row>
@@ -7582,22 +7582,22 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Pavo</t>
+          <t>Cerdo</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/carniceria/pavo</t>
+          <t>https://www.jumbo.cl/carniceria/cerdo</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Trutros y Bistec de Pavo</t>
+          <t>Malaya y Otros Cortes</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/carniceria/pavo/trutros-y-bistec-de-pavo</t>
+          <t>https://www.jumbo.cl/carniceria/cerdo/malaya-y-otros-cortes</t>
         </is>
       </c>
     </row>
@@ -7614,22 +7614,22 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Pavo</t>
+          <t>Cerdo</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/carniceria/pavo</t>
+          <t>https://www.jumbo.cl/carniceria/cerdo</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Carne Molida y Albondigas de Pavo</t>
+          <t>Mostrar Todo</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/carniceria/pavo/carne-molida-y-albondigas-de-pavo</t>
+          <t>https://www.jumbo.cl/carniceria/cerdo</t>
         </is>
       </c>
     </row>
@@ -7646,12 +7646,12 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Pavo</t>
+          <t>Cordero</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/carniceria/pavo</t>
+          <t>https://www.jumbo.cl/carniceria/cordero</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -7661,7 +7661,7 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/carniceria/pavo</t>
+          <t>https://www.jumbo.cl/carniceria/cordero</t>
         </is>
       </c>
     </row>
@@ -7678,22 +7678,22 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Pavo</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/carniceria/pollo</t>
+          <t>https://www.jumbo.cl/carniceria/pavo</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Trutros y Pechugas a Granel</t>
+          <t>Filetes y Pechugas de Pavo</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/carniceria/pollo/trutros-y-pechugas-a-granel</t>
+          <t>https://www.jumbo.cl/carniceria/pavo/filetes-y-pechugas-de-pavo</t>
         </is>
       </c>
     </row>
@@ -7710,22 +7710,22 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Pavo</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/carniceria/pollo</t>
+          <t>https://www.jumbo.cl/carniceria/pavo</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Filetes y Pechuga de Pollo</t>
+          <t>Pavo Entero</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/carniceria/pollo/filetes-y-pechugas-de-pollo</t>
+          <t>https://www.jumbo.cl/carniceria/pavo/pavo-entero</t>
         </is>
       </c>
     </row>
@@ -7742,22 +7742,22 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Pavo</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/carniceria/pollo</t>
+          <t>https://www.jumbo.cl/carniceria/pavo</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Alitas y Trutros de Pollo</t>
+          <t>Trutros y Bistec de Pavo</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/carniceria/pollo/alitas-y-trutros-de-pollo</t>
+          <t>https://www.jumbo.cl/carniceria/pavo/trutros-y-bistec-de-pavo</t>
         </is>
       </c>
     </row>
@@ -7774,22 +7774,22 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Pavo</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/carniceria/pollo</t>
+          <t>https://www.jumbo.cl/carniceria/pavo</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Pollo Entero</t>
+          <t>Carne Molida y Albondigas de Pavo</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/carniceria/pollo/pollo-entero</t>
+          <t>https://www.jumbo.cl/carniceria/pavo/carne-molida-y-albondigas-de-pavo</t>
         </is>
       </c>
     </row>
@@ -7806,12 +7806,12 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Pavo</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/carniceria/pollo</t>
+          <t>https://www.jumbo.cl/carniceria/pavo</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -7821,7 +7821,7 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/carniceria/pollo</t>
+          <t>https://www.jumbo.cl/carniceria/pavo</t>
         </is>
       </c>
     </row>
@@ -7838,22 +7838,22 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Pescadería</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/pescaderia</t>
+          <t>https://www.jumbo.cl/carniceria/pollo</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Camarones</t>
+          <t>Trutros y Pechugas a Granel</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/pescaderia/camarones</t>
+          <t>https://www.jumbo.cl/carniceria/pollo/trutros-y-pechugas-a-granel</t>
         </is>
       </c>
     </row>
@@ -7870,22 +7870,22 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Pescadería</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/pescaderia</t>
+          <t>https://www.jumbo.cl/carniceria/pollo</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Pescados</t>
+          <t>Filetes y Pechuga de Pollo</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/pescaderia/pescados</t>
+          <t>https://www.jumbo.cl/carniceria/pollo/filetes-y-pechugas-de-pollo</t>
         </is>
       </c>
     </row>
@@ -7902,22 +7902,22 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Pescadería</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/pescaderia</t>
+          <t>https://www.jumbo.cl/carniceria/pollo</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Ahumados y Carpaccios</t>
+          <t>Alitas y Trutros de Pollo</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/pescaderia/ahumados-y-carpaccios</t>
+          <t>https://www.jumbo.cl/carniceria/pollo/alitas-y-trutros-de-pollo</t>
         </is>
       </c>
     </row>
@@ -7934,22 +7934,22 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Pescadería</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/pescaderia</t>
+          <t>https://www.jumbo.cl/carniceria/pollo</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Mariscos</t>
+          <t>Pollo Entero</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/pescaderia/mariscos</t>
+          <t>https://www.jumbo.cl/carniceria/pollo/pollo-entero</t>
         </is>
       </c>
     </row>
@@ -7966,12 +7966,12 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Pescadería</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/pescaderia</t>
+          <t>https://www.jumbo.cl/carniceria/pollo</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -7981,157 +7981,157 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/pescaderia</t>
+          <t>https://www.jumbo.cl/carniceria/pollo</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Botillería</t>
+          <t>Carnicería</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/bebidas-aguas-y-jugos</t>
+          <t>https://www.jumbo.cl/carniceria</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Bebidas</t>
+          <t>Pescadería</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/bebidas-aguas-y-jugos/bebidas-gaseosas</t>
+          <t>https://www.jumbo.cl/pescaderia</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Bebidas en Lata e Individuales</t>
+          <t>Camarones</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/bebidas-aguas-y-jugos/bebidas-gaseosas/bebidas-en-lata-e-individuales</t>
+          <t>https://www.jumbo.cl/pescaderia/camarones</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Botillería</t>
+          <t>Carnicería</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/bebidas-aguas-y-jugos</t>
+          <t>https://www.jumbo.cl/carniceria</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Bebidas</t>
+          <t>Pescadería</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/bebidas-aguas-y-jugos/bebidas-gaseosas</t>
+          <t>https://www.jumbo.cl/pescaderia</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Bebidas Light o Zero Azúcar</t>
+          <t>Pescados</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/bebidas-aguas-y-jugos/bebidas-gaseosas/bebidas-light-o-zero-azucar</t>
+          <t>https://www.jumbo.cl/pescaderia/pescados</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Botillería</t>
+          <t>Carnicería</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/bebidas-aguas-y-jugos</t>
+          <t>https://www.jumbo.cl/carniceria</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Bebidas</t>
+          <t>Pescadería</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/bebidas-aguas-y-jugos/bebidas-gaseosas</t>
+          <t>https://www.jumbo.cl/pescaderia</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Bebidas Regulares</t>
+          <t>Ahumados y Carpaccios</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/bebidas-aguas-y-jugos/bebidas-gaseosas/bebidas-regulares</t>
+          <t>https://www.jumbo.cl/pescaderia/ahumados-y-carpaccios</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Botillería</t>
+          <t>Carnicería</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/bebidas-aguas-y-jugos</t>
+          <t>https://www.jumbo.cl/carniceria</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Bebidas</t>
+          <t>Pescadería</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/bebidas-aguas-y-jugos/bebidas-gaseosas</t>
+          <t>https://www.jumbo.cl/pescaderia</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Bebidas Retornables</t>
+          <t>Mariscos</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/bebidas-aguas-y-jugos/bebidas-gaseosas/bebidas-retornables</t>
+          <t>https://www.jumbo.cl/pescaderia/mariscos</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Botillería</t>
+          <t>Carnicería</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/bebidas-aguas-y-jugos</t>
+          <t>https://www.jumbo.cl/carniceria</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Bebidas</t>
+          <t>Pescadería</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/bebidas-aguas-y-jugos/bebidas-gaseosas</t>
+          <t>https://www.jumbo.cl/pescaderia</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -8141,7 +8141,7 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/bebidas-aguas-y-jugos/bebidas-gaseosas</t>
+          <t>https://www.jumbo.cl/pescaderia</t>
         </is>
       </c>
     </row>
@@ -8158,22 +8158,22 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Jugos</t>
+          <t>Bebidas</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/bebidas-aguas-y-jugos/jugos</t>
+          <t>https://www.jumbo.cl/bebidas-aguas-y-jugos/bebidas-gaseosas</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Jugos Frescos</t>
+          <t>Bebidas en Lata e Individuales</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/bebidas-aguas-y-jugos/jugos/jugos-frescos</t>
+          <t>https://www.jumbo.cl/bebidas-aguas-y-jugos/bebidas-gaseosas/bebidas-en-lata-e-individuales</t>
         </is>
       </c>
     </row>
@@ -8190,22 +8190,22 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Jugos</t>
+          <t>Bebidas</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/bebidas-aguas-y-jugos/jugos</t>
+          <t>https://www.jumbo.cl/bebidas-aguas-y-jugos/bebidas-gaseosas</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Jugos y Néctar</t>
+          <t>Bebidas Light o Zero Azúcar</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/bebidas-aguas-y-jugos/jugos/jugos-y-nectar</t>
+          <t>https://www.jumbo.cl/bebidas-aguas-y-jugos/bebidas-gaseosas/bebidas-light-o-zero-azucar</t>
         </is>
       </c>
     </row>
@@ -8222,22 +8222,22 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Jugos</t>
+          <t>Bebidas</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/bebidas-aguas-y-jugos/jugos</t>
+          <t>https://www.jumbo.cl/bebidas-aguas-y-jugos/bebidas-gaseosas</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Refrescos en Polvo</t>
+          <t>Bebidas Regulares</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/bebidas-aguas-y-jugos/jugos/refrescos-en-polvo</t>
+          <t>https://www.jumbo.cl/bebidas-aguas-y-jugos/bebidas-gaseosas/bebidas-regulares</t>
         </is>
       </c>
     </row>
@@ -8254,22 +8254,22 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Jugos</t>
+          <t>Bebidas</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/bebidas-aguas-y-jugos/jugos</t>
+          <t>https://www.jumbo.cl/bebidas-aguas-y-jugos/bebidas-gaseosas</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Té Líquidos</t>
+          <t>Bebidas Retornables</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/bebidas-aguas-y-jugos/jugos/te-liquidos</t>
+          <t>https://www.jumbo.cl/bebidas-aguas-y-jugos/bebidas-gaseosas/bebidas-retornables</t>
         </is>
       </c>
     </row>
@@ -8286,12 +8286,12 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Jugos</t>
+          <t>Bebidas</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/bebidas-aguas-y-jugos/jugos</t>
+          <t>https://www.jumbo.cl/bebidas-aguas-y-jugos/bebidas-gaseosas</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -8301,7 +8301,7 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/bebidas-aguas-y-jugos/jugos</t>
+          <t>https://www.jumbo.cl/bebidas-aguas-y-jugos/bebidas-gaseosas</t>
         </is>
       </c>
     </row>
@@ -8318,22 +8318,22 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Aguas Minerales</t>
+          <t>Jugos</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/bebidas-aguas-y-jugos/aguas-minerales</t>
+          <t>https://www.jumbo.cl/bebidas-aguas-y-jugos/jugos</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Agua Mineral con Gas</t>
+          <t>Jugos Frescos</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/bebidas-aguas-y-jugos/aguas-minerales/agua-mineral-con-gas</t>
+          <t>https://www.jumbo.cl/bebidas-aguas-y-jugos/jugos/jugos-frescos</t>
         </is>
       </c>
     </row>
@@ -8350,22 +8350,22 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Aguas Minerales</t>
+          <t>Jugos</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/bebidas-aguas-y-jugos/aguas-minerales</t>
+          <t>https://www.jumbo.cl/bebidas-aguas-y-jugos/jugos</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Agua Mineral sin Gas</t>
+          <t>Jugos y Néctar</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/bebidas-aguas-y-jugos/aguas-minerales/agua-mineral-sin-gas</t>
+          <t>https://www.jumbo.cl/bebidas-aguas-y-jugos/jugos/jugos-y-nectar</t>
         </is>
       </c>
     </row>
@@ -8382,22 +8382,22 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Aguas Minerales</t>
+          <t>Jugos</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/bebidas-aguas-y-jugos/aguas-minerales</t>
+          <t>https://www.jumbo.cl/bebidas-aguas-y-jugos/jugos</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Agua Saborizada</t>
+          <t>Refrescos en Polvo</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/bebidas-aguas-y-jugos/aguas-minerales/agua-saborizada</t>
+          <t>https://www.jumbo.cl/bebidas-aguas-y-jugos/jugos/refrescos-en-polvo</t>
         </is>
       </c>
     </row>
@@ -8414,22 +8414,22 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Aguas Minerales</t>
+          <t>Jugos</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/bebidas-aguas-y-jugos/aguas-minerales</t>
+          <t>https://www.jumbo.cl/bebidas-aguas-y-jugos/jugos</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Mostrar Todo</t>
+          <t>Té Líquidos</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/bebidas-aguas-y-jugos/aguas-minerales</t>
+          <t>https://www.jumbo.cl/bebidas-aguas-y-jugos/jugos/te-liquidos</t>
         </is>
       </c>
     </row>
@@ -8446,22 +8446,22 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Vinos y Espumantes</t>
+          <t>Jugos</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/vinos</t>
+          <t>https://www.jumbo.cl/bebidas-aguas-y-jugos/jugos</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Vinos y Espumantes Premiados</t>
+          <t>Mostrar Todo</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/vinos/vinos-y-espumantes-premiados</t>
+          <t>https://www.jumbo.cl/bebidas-aguas-y-jugos/jugos</t>
         </is>
       </c>
     </row>
@@ -8478,22 +8478,22 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Vinos y Espumantes</t>
+          <t>Aguas Minerales</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/vinos</t>
+          <t>https://www.jumbo.cl/bebidas-aguas-y-jugos/aguas-minerales</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Vinos Tintos</t>
+          <t>Agua Mineral con Gas</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/vinos/vinos-tintos</t>
+          <t>https://www.jumbo.cl/bebidas-aguas-y-jugos/aguas-minerales/agua-mineral-con-gas</t>
         </is>
       </c>
     </row>
@@ -8510,22 +8510,22 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Vinos y Espumantes</t>
+          <t>Aguas Minerales</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/vinos</t>
+          <t>https://www.jumbo.cl/bebidas-aguas-y-jugos/aguas-minerales</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Vinos Blancos</t>
+          <t>Agua Mineral sin Gas</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/vinos/vinos-blancos</t>
+          <t>https://www.jumbo.cl/bebidas-aguas-y-jugos/aguas-minerales/agua-mineral-sin-gas</t>
         </is>
       </c>
     </row>
@@ -8542,22 +8542,22 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Vinos y Espumantes</t>
+          <t>Aguas Minerales</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/vinos</t>
+          <t>https://www.jumbo.cl/bebidas-aguas-y-jugos/aguas-minerales</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Espumantes</t>
+          <t>Agua Saborizada</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/vinos/espumantes</t>
+          <t>https://www.jumbo.cl/bebidas-aguas-y-jugos/aguas-minerales/agua-saborizada</t>
         </is>
       </c>
     </row>
@@ -8574,12 +8574,12 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Vinos y Espumantes</t>
+          <t>Aguas Minerales</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/vinos</t>
+          <t>https://www.jumbo.cl/bebidas-aguas-y-jugos/aguas-minerales</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
@@ -8589,7 +8589,7 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/vinos</t>
+          <t>https://www.jumbo.cl/bebidas-aguas-y-jugos/aguas-minerales</t>
         </is>
       </c>
     </row>
@@ -8606,22 +8606,22 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Cervezas</t>
+          <t>Vinos y Espumantes</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/cervezas</t>
+          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/vinos</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Cervezas Tradicionales</t>
+          <t>Vinos y Espumantes Premiados</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/cervezas/cervezas-tradicionales</t>
+          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/vinos/vinos-y-espumantes-premiados</t>
         </is>
       </c>
     </row>
@@ -8638,22 +8638,22 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Cervezas</t>
+          <t>Vinos y Espumantes</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/cervezas</t>
+          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/vinos</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Cervezas Destacadas</t>
+          <t>Vinos Tintos</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/cervezas/cervezas-destacadas</t>
+          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/vinos/vinos-tintos</t>
         </is>
       </c>
     </row>
@@ -8670,22 +8670,22 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Cervezas</t>
+          <t>Vinos y Espumantes</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/cervezas</t>
+          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/vinos</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Cervezas Artesanales</t>
+          <t>Vinos Blancos</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/cervezas/cervezas-artesanales</t>
+          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/vinos/vinos-blancos</t>
         </is>
       </c>
     </row>
@@ -8702,22 +8702,22 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Cervezas</t>
+          <t>Vinos y Espumantes</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/cervezas</t>
+          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/vinos</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Cervezas sin Alcohol</t>
+          <t>Espumantes</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/cervezas/cervezas-sin-alcohol</t>
+          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/vinos/espumantes</t>
         </is>
       </c>
     </row>
@@ -8734,12 +8734,12 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Cervezas</t>
+          <t>Vinos y Espumantes</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/cervezas</t>
+          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/vinos</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
@@ -8749,7 +8749,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/cervezas</t>
+          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/vinos</t>
         </is>
       </c>
     </row>
@@ -8766,22 +8766,22 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Licores y Cócteles</t>
+          <t>Cervezas</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/licores-y-cocteles</t>
+          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/cervezas</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Cócteles Sour y Colados</t>
+          <t>Cervezas Tradicionales</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/licores-y-cocteles/cocteles-sour-y-colados</t>
+          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/cervezas/cervezas-tradicionales</t>
         </is>
       </c>
     </row>
@@ -8798,22 +8798,22 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Licores y Cócteles</t>
+          <t>Cervezas</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/licores-y-cocteles</t>
+          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/cervezas</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Cócteles Ice</t>
+          <t>Cervezas Destacadas</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/licores-y-cocteles/cocteles-ice</t>
+          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/cervezas/cervezas-destacadas</t>
         </is>
       </c>
     </row>
@@ -8830,22 +8830,22 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Licores y Cócteles</t>
+          <t>Cervezas</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/licores-y-cocteles</t>
+          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/cervezas</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Licores</t>
+          <t>Cervezas Artesanales</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/licores-y-cocteles/licores</t>
+          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/cervezas/cervezas-artesanales</t>
         </is>
       </c>
     </row>
@@ -8862,22 +8862,22 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Licores y Cócteles</t>
+          <t>Cervezas</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/licores-y-cocteles</t>
+          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/cervezas</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Jarabes y Cremas para mezclar</t>
+          <t>Cervezas sin Alcohol</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/licores-y-cocteles/jarabes-y-cremas-para-mezclar</t>
+          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/cervezas/cervezas-sin-alcohol</t>
         </is>
       </c>
     </row>
@@ -8894,12 +8894,12 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Licores y Cócteles</t>
+          <t>Cervezas</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/licores-y-cocteles</t>
+          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/cervezas</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
@@ -8909,7 +8909,7 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/licores-y-cocteles</t>
+          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/cervezas</t>
         </is>
       </c>
     </row>
@@ -8926,22 +8926,22 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Destilados</t>
+          <t>Licores y Cócteles</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/destilados</t>
+          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/licores-y-cocteles</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Whisky</t>
+          <t>Cócteles Sour y Colados</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/destilados/whisky</t>
+          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/licores-y-cocteles/cocteles-sour-y-colados</t>
         </is>
       </c>
     </row>
@@ -8958,22 +8958,22 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Destilados</t>
+          <t>Licores y Cócteles</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/destilados</t>
+          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/licores-y-cocteles</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Pisco</t>
+          <t>Cócteles Ice</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/destilados/pisco</t>
+          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/licores-y-cocteles/cocteles-ice</t>
         </is>
       </c>
     </row>
@@ -8990,22 +8990,22 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Destilados</t>
+          <t>Licores y Cócteles</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/destilados</t>
+          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/licores-y-cocteles</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Gin</t>
+          <t>Licores</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/destilados/gin</t>
+          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/licores-y-cocteles/licores</t>
         </is>
       </c>
     </row>
@@ -9022,22 +9022,22 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Destilados</t>
+          <t>Licores y Cócteles</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/destilados</t>
+          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/licores-y-cocteles</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Tequila</t>
+          <t>Jarabes y Cremas para mezclar</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/destilados/tequila</t>
+          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/licores-y-cocteles/jarabes-y-cremas-para-mezclar</t>
         </is>
       </c>
     </row>
@@ -9054,12 +9054,12 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Destilados</t>
+          <t>Licores y Cócteles</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/destilados</t>
+          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/licores-y-cocteles</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
@@ -9069,7 +9069,7 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/destilados</t>
+          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/licores-y-cocteles</t>
         </is>
       </c>
     </row>
@@ -9086,22 +9086,22 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Bebidas Energéticas</t>
+          <t>Destilados</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/bebidas-aguas-y-jugos/bebidas-energeticas</t>
+          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/destilados</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Mostrar Todo</t>
+          <t>Whisky</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/bebidas-aguas-y-jugos/bebidas-energeticas</t>
+          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/destilados/whisky</t>
         </is>
       </c>
     </row>
@@ -9118,22 +9118,22 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Bebidas Isotónicas</t>
+          <t>Destilados</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/bebidas-aguas-y-jugos/bebidas-isotonicas</t>
+          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/destilados</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Mostrar Todo</t>
+          <t>Pisco</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/bebidas-aguas-y-jugos/bebidas-isotonicas</t>
+          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/destilados/pisco</t>
         </is>
       </c>
     </row>
@@ -9150,22 +9150,22 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Hielo</t>
+          <t>Destilados</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/congelados/hielo</t>
+          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/destilados</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Mostrar Todo</t>
+          <t>Gin</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/congelados/hielo</t>
+          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/destilados/gin</t>
         </is>
       </c>
     </row>
@@ -9182,22 +9182,22 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Sin Alcohol</t>
+          <t>Destilados</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/sin-alcohol</t>
+          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/destilados</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Cervezas sin Alcohol</t>
+          <t>Tequila</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/sin-alcohol/cervezas-sin-alcohol</t>
+          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/destilados/tequila</t>
         </is>
       </c>
     </row>
@@ -9214,22 +9214,22 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Sin Alcohol</t>
+          <t>Destilados</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/sin-alcohol</t>
+          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/destilados</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>Vinos sin Alcohol</t>
+          <t>Mostrar Todo</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/sin-alcohol/vinos-sin-alcohol</t>
+          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/destilados</t>
         </is>
       </c>
     </row>
@@ -9246,22 +9246,22 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Sin Alcohol</t>
+          <t>Bebidas Energéticas</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/sin-alcohol</t>
+          <t>https://www.jumbo.cl/bebidas-aguas-y-jugos/bebidas-energeticas</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>Espumantes sin Alcohol</t>
+          <t>Mostrar Todo</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/sin-alcohol/espumantes-sin-alcohol</t>
+          <t>https://www.jumbo.cl/bebidas-aguas-y-jugos/bebidas-energeticas</t>
         </is>
       </c>
     </row>
@@ -9278,22 +9278,22 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Sin Alcohol</t>
+          <t>Bebidas Isotónicas</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/sin-alcohol</t>
+          <t>https://www.jumbo.cl/bebidas-aguas-y-jugos/bebidas-isotonicas</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>Cócteles y Licores sin Alcohol</t>
+          <t>Mostrar Todo</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/sin-alcohol/cocteles-y-licores-sin-alcohol</t>
+          <t>https://www.jumbo.cl/bebidas-aguas-y-jugos/bebidas-isotonicas</t>
         </is>
       </c>
     </row>
@@ -9310,12 +9310,12 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Sin Alcohol</t>
+          <t>Hielo</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/sin-alcohol</t>
+          <t>https://www.jumbo.cl/congelados/hielo</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
@@ -9325,157 +9325,157 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/sin-alcohol</t>
+          <t>https://www.jumbo.cl/congelados/hielo</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Mascotas</t>
+          <t>Botillería</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/mascotas</t>
+          <t>https://www.jumbo.cl/bebidas-aguas-y-jugos</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Perros</t>
+          <t>Sin Alcohol</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/mascotas/perros</t>
+          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/sin-alcohol</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Alimentos Cachorros</t>
+          <t>Cervezas sin Alcohol</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/mascotas/perros/alimentos-cachorros</t>
+          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/sin-alcohol/cervezas-sin-alcohol</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Mascotas</t>
+          <t>Botillería</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/mascotas</t>
+          <t>https://www.jumbo.cl/bebidas-aguas-y-jugos</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Perros</t>
+          <t>Sin Alcohol</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/mascotas/perros</t>
+          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/sin-alcohol</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>Alimentos Adultos</t>
+          <t>Vinos sin Alcohol</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/mascotas/perros/alimentos-adultos</t>
+          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/sin-alcohol/vinos-sin-alcohol</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Mascotas</t>
+          <t>Botillería</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/mascotas</t>
+          <t>https://www.jumbo.cl/bebidas-aguas-y-jugos</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Perros</t>
+          <t>Sin Alcohol</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/mascotas/perros</t>
+          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/sin-alcohol</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>Alimentos Senior</t>
+          <t>Espumantes sin Alcohol</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/mascotas/perros/alimentos-senior</t>
+          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/sin-alcohol/espumantes-sin-alcohol</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Mascotas</t>
+          <t>Botillería</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/mascotas</t>
+          <t>https://www.jumbo.cl/bebidas-aguas-y-jugos</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Perros</t>
+          <t>Sin Alcohol</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/mascotas/perros</t>
+          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/sin-alcohol</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>Alimentos Húmedos Perros</t>
+          <t>Cócteles y Licores sin Alcohol</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/mascotas/perros/alimentos-humedos-perros</t>
+          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/sin-alcohol/cocteles-y-licores-sin-alcohol</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Mascotas</t>
+          <t>Botillería</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/mascotas</t>
+          <t>https://www.jumbo.cl/bebidas-aguas-y-jugos</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Perros</t>
+          <t>Sin Alcohol</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/mascotas/perros</t>
+          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/sin-alcohol</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
@@ -9485,7 +9485,7 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/mascotas/perros</t>
+          <t>https://www.jumbo.cl/vinos-cervezas-y-licores/sin-alcohol</t>
         </is>
       </c>
     </row>
@@ -9502,22 +9502,22 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Gatos</t>
+          <t>Perros</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/mascotas/gatos</t>
+          <t>https://www.jumbo.cl/mascotas/perros</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>Alimentos Gatitos</t>
+          <t>Alimentos Cachorros</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/mascotas/gatos/alimentos-gatitos</t>
+          <t>https://www.jumbo.cl/mascotas/perros/alimentos-cachorros</t>
         </is>
       </c>
     </row>
@@ -9534,22 +9534,22 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Gatos</t>
+          <t>Perros</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/mascotas/gatos</t>
+          <t>https://www.jumbo.cl/mascotas/perros</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>Alimentos Gatos</t>
+          <t>Alimentos Adultos</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/mascotas/gatos/alimentos-gatos</t>
+          <t>https://www.jumbo.cl/mascotas/perros/alimentos-adultos</t>
         </is>
       </c>
     </row>
@@ -9566,22 +9566,22 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Gatos</t>
+          <t>Perros</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/mascotas/gatos</t>
+          <t>https://www.jumbo.cl/mascotas/perros</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>Alimentos Húmedos Gatos</t>
+          <t>Alimentos Senior</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/mascotas/gatos/alimentos-humedos-gatos</t>
+          <t>https://www.jumbo.cl/mascotas/perros/alimentos-senior</t>
         </is>
       </c>
     </row>
@@ -9598,22 +9598,22 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Gatos</t>
+          <t>Perros</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/mascotas/gatos</t>
+          <t>https://www.jumbo.cl/mascotas/perros</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>Snacks y Salsas Gatos</t>
+          <t>Alimentos Húmedos Perros</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/mascotas/gatos/snacks-y-salsas</t>
+          <t>https://www.jumbo.cl/mascotas/perros/alimentos-humedos-perros</t>
         </is>
       </c>
     </row>
@@ -9630,12 +9630,12 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Gatos</t>
+          <t>Perros</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/mascotas/gatos</t>
+          <t>https://www.jumbo.cl/mascotas/perros</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
@@ -9645,7 +9645,7 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/mascotas/gatos</t>
+          <t>https://www.jumbo.cl/mascotas/perros</t>
         </is>
       </c>
     </row>
@@ -9662,22 +9662,22 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Otras Mascotas</t>
+          <t>Gatos</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/mascotas/otras-mascotas</t>
+          <t>https://www.jumbo.cl/mascotas/gatos</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>Alimentos Otras Mascotas</t>
+          <t>Alimentos Gatitos</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/mascotas/otras-mascotas/alimentos-otras-mascotas</t>
+          <t>https://www.jumbo.cl/mascotas/gatos/alimentos-gatitos</t>
         </is>
       </c>
     </row>
@@ -9694,22 +9694,22 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Otras Mascotas</t>
+          <t>Gatos</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/mascotas/otras-mascotas</t>
+          <t>https://www.jumbo.cl/mascotas/gatos</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>Accesorios e Higiene Otras Mascotas</t>
+          <t>Alimentos Gatos</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>https://www.jumbo.cl/mascotas/otras-mascotas/accesorios-e-higiene-otras-mascotas</t>
+          <t>https://www.jumbo.cl/mascotas/gatos/alimentos-gatos</t>
         </is>
       </c>
     </row>
@@ -9726,20 +9726,180 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
+          <t>Gatos</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>https://www.jumbo.cl/mascotas/gatos</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>Alimentos Húmedos Gatos</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>https://www.jumbo.cl/mascotas/gatos/alimentos-humedos-gatos</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Mascotas</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>https://www.jumbo.cl/mascotas</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Gatos</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>https://www.jumbo.cl/mascotas/gatos</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>Snacks y Salsas Gatos</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>https://www.jumbo.cl/mascotas/gatos/snacks-y-salsas</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Mascotas</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>https://www.jumbo.cl/mascotas</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Gatos</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>https://www.jumbo.cl/mascotas/gatos</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>Mostrar Todo</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>https://www.jumbo.cl/mascotas/gatos</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Mascotas</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>https://www.jumbo.cl/mascotas</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
           <t>Otras Mascotas</t>
         </is>
       </c>
-      <c r="D291" t="inlineStr">
+      <c r="D294" t="inlineStr">
         <is>
           <t>https://www.jumbo.cl/mascotas/otras-mascotas</t>
         </is>
       </c>
-      <c r="E291" t="inlineStr">
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>Alimentos Otras Mascotas</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>https://www.jumbo.cl/mascotas/otras-mascotas/alimentos-otras-mascotas</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Mascotas</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>https://www.jumbo.cl/mascotas</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>Otras Mascotas</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>https://www.jumbo.cl/mascotas/otras-mascotas</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>Accesorios e Higiene Otras Mascotas</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>https://www.jumbo.cl/mascotas/otras-mascotas/accesorios-e-higiene-otras-mascotas</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Mascotas</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>https://www.jumbo.cl/mascotas</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>Otras Mascotas</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>https://www.jumbo.cl/mascotas/otras-mascotas</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
         <is>
           <t>Mostrar Todo</t>
         </is>
       </c>
-      <c r="F291" t="inlineStr">
+      <c r="F296" t="inlineStr">
         <is>
           <t>https://www.jumbo.cl/mascotas/otras-mascotas</t>
         </is>
